--- a/output/oxfam intermon.xlsx
+++ b/output/oxfam intermon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="293">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
+    <t>Public_Grant</t>
   </si>
   <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
+    <t>NGO_Country_Budget_Previous_Year</t>
   </si>
   <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
+    <t>Public_Funds_MAE</t>
   </si>
   <si>
-    <t>Fondos_Publicos_Descentralizada</t>
+    <t>Public_Funds_Decentralized</t>
   </si>
   <si>
-    <t>Fondos_Publicos_Internacional</t>
+    <t>Public_Funds_Internacional</t>
   </si>
   <si>
-    <t>Fondos_Publicos_Otros</t>
+    <t>Public_Funds_Other</t>
   </si>
   <si>
-    <t>Fondos_Publicos_Total</t>
+    <t>Public_Funds_Total</t>
   </si>
   <si>
-    <t>Fondos_Privados_Cuotas</t>
+    <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Fondos_Privados_Donaciones</t>
+    <t>Public_Funds_Donations</t>
   </si>
   <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -1224,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ254"/>
+  <dimension ref="A1:AM254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1233,7 +1242,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1342,10 +1351,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1444,15 +1462,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>980005</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1551,15 +1578,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1658,15 +1694,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>320041</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1765,15 +1810,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>1211485</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1872,15 +1926,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>2855108</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1979,15 +2042,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>73740</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2086,15 +2158,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2193,15 +2274,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>1549700</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2300,15 +2390,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>1253723</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2407,15 +2506,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>1089328</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2514,15 +2622,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>443751</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2621,15 +2738,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2728,15 +2854,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ14">
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>1711753</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2835,15 +2970,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>1617585</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2942,15 +3086,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ16">
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>1213012</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3049,15 +3202,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ17">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>1072505</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3156,15 +3318,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3263,15 +3434,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3370,15 +3550,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ20">
+        <v>1</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>1143000</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3477,15 +3666,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ21">
+        <v>1</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3584,15 +3782,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ22">
+        <v>1</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3691,15 +3898,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ23">
+        <v>1</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>170768</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3798,15 +4014,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ24">
+        <v>1</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3905,15 +4130,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ25">
+        <v>1</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4012,15 +4246,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ26">
+        <v>1</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4119,15 +4362,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ27">
+        <v>1</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4226,15 +4478,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ28">
+        <v>1</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4333,15 +4594,24 @@
         <v>0.6709696178496812</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ29">
+        <v>1</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4440,15 +4710,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ30">
+        <v>1</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>249677</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4547,15 +4826,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ31">
+        <v>1</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4654,15 +4942,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ32">
+        <v>1</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>2675671</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4761,15 +5058,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ33">
+        <v>1</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4868,15 +5174,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ34">
+        <v>1</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>513628</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -4975,15 +5290,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ35">
+        <v>1</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>5633528</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5082,15 +5406,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ36">
+        <v>1</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>729451</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5189,15 +5522,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ37">
+        <v>1</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>2600399</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5296,15 +5638,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ38">
+        <v>1</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5403,15 +5754,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ39">
+        <v>1</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5510,15 +5870,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ40">
+        <v>1</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>588932</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -5617,15 +5986,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ41">
+        <v>1</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>437452</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5724,15 +6102,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ42">
+        <v>1</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>1430817</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5831,15 +6218,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ43">
+        <v>1</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -5938,15 +6334,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ44">
+        <v>1</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>2314224</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -6045,15 +6450,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ45">
+        <v>1</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6152,15 +6566,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ46">
+        <v>1</v>
+      </c>
+      <c r="AK46">
+        <v>1</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6259,15 +6682,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ47">
+        <v>1</v>
+      </c>
+      <c r="AK47">
+        <v>1</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>1660328</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6366,15 +6798,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ48">
+        <v>1</v>
+      </c>
+      <c r="AK48">
+        <v>1</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>1032323</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6473,15 +6914,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ49">
+        <v>1</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>7021417</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6580,15 +7030,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ50">
+        <v>1</v>
+      </c>
+      <c r="AK50">
+        <v>1</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6687,15 +7146,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ51">
+        <v>1</v>
+      </c>
+      <c r="AK51">
+        <v>1</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6794,15 +7262,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ52">
+        <v>1</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>1961916</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6901,15 +7378,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ53">
+        <v>1</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>915708</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7008,15 +7494,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ54">
+        <v>1</v>
+      </c>
+      <c r="AK54">
+        <v>1</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>1333011</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7115,15 +7610,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ55">
+        <v>1</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>203872</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7222,15 +7726,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ56">
+        <v>1</v>
+      </c>
+      <c r="AK56">
+        <v>1</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7329,15 +7842,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ57">
+        <v>1</v>
+      </c>
+      <c r="AK57">
+        <v>1</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>1592049</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7436,15 +7958,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ58">
+        <v>1</v>
+      </c>
+      <c r="AK58">
+        <v>1</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>1091113</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7543,15 +8074,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ59">
+        <v>1</v>
+      </c>
+      <c r="AK59">
+        <v>1</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>717380</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7650,15 +8190,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ60">
+        <v>1</v>
+      </c>
+      <c r="AK60">
+        <v>1</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>1189949</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -7757,15 +8306,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ61">
+        <v>1</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7864,15 +8422,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ62">
+        <v>1</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>81595</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7971,15 +8538,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ63">
+        <v>1</v>
+      </c>
+      <c r="AK63">
+        <v>1</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -8078,15 +8654,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ64">
+        <v>1</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>267770</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -8185,15 +8770,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ65">
+        <v>1</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8292,15 +8886,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ66">
+        <v>1</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -8399,15 +9002,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ67">
+        <v>1</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
         <v>36582</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -8506,15 +9118,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI68">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ68">
+        <v>1</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8613,15 +9234,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ69">
+        <v>1</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>415000</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8720,15 +9350,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ70">
+        <v>1</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8827,15 +9466,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ71">
+        <v>1</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -8934,15 +9582,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI72">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ72">
+        <v>1</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -9041,15 +9698,24 @@
         <v>0.6756246252731952</v>
       </c>
       <c r="AI73">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ73">
+        <v>1</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -9148,15 +9814,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI74">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ74">
+        <v>1</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -9255,15 +9930,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI75">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ75">
+        <v>1</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
         <v>2679786</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -9362,15 +10046,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI76">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ76">
+        <v>1</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:39">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9469,15 +10162,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI77">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ77">
+        <v>1</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
+      <c r="AL77">
+        <v>1</v>
+      </c>
+      <c r="AM77">
         <v>325948</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:39">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -9576,15 +10278,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI78">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ78">
+        <v>1</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>1</v>
+      </c>
+      <c r="AM78">
         <v>5988953</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:39">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9683,15 +10394,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI79">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ79">
+        <v>1</v>
+      </c>
+      <c r="AK79">
+        <v>1</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
         <v>763752</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:39">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -9790,15 +10510,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI80">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ80">
+        <v>1</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
         <v>2037257</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:39">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -9897,15 +10626,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI81">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ81">
+        <v>1</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
         <v>368437</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -10004,15 +10742,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI82">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ82">
+        <v>1</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>1</v>
+      </c>
+      <c r="AM82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:39">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -10111,15 +10858,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI83">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ83">
+        <v>1</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
+      <c r="AM83">
         <v>1279277</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:39">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -10218,15 +10974,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI84">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ84">
+        <v>1</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
+      <c r="AL84">
+        <v>1</v>
+      </c>
+      <c r="AM84">
         <v>630757</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -10325,15 +11090,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI85">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ85">
+        <v>1</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
+      <c r="AM85">
         <v>3250780</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:39">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -10432,15 +11206,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI86">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ86">
+        <v>1</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <v>1</v>
+      </c>
+      <c r="AM86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:39">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -10539,15 +11322,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI87">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ87">
+        <v>1</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+      <c r="AM87">
         <v>3254679</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:39">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -10646,15 +11438,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI88">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ88">
+        <v>1</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
+      <c r="AM88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:39">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -10753,15 +11554,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI89">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ89">
+        <v>1</v>
+      </c>
+      <c r="AK89">
+        <v>1</v>
+      </c>
+      <c r="AL89">
+        <v>1</v>
+      </c>
+      <c r="AM89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:39">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -10860,15 +11670,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI90">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ90">
+        <v>1</v>
+      </c>
+      <c r="AK90">
+        <v>1</v>
+      </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90">
         <v>334327</v>
       </c>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:39">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -10967,15 +11786,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI91">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ91">
+        <v>1</v>
+      </c>
+      <c r="AK91">
+        <v>1</v>
+      </c>
+      <c r="AL91">
+        <v>1</v>
+      </c>
+      <c r="AM91">
         <v>970546</v>
       </c>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:39">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -11074,15 +11902,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI92">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ92">
+        <v>1</v>
+      </c>
+      <c r="AK92">
+        <v>0</v>
+      </c>
+      <c r="AL92">
+        <v>1</v>
+      </c>
+      <c r="AM92">
         <v>6895981</v>
       </c>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:39">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -11181,15 +12018,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI93">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ93">
+        <v>1</v>
+      </c>
+      <c r="AK93">
+        <v>1</v>
+      </c>
+      <c r="AL93">
+        <v>1</v>
+      </c>
+      <c r="AM93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:39">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -11288,15 +12134,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI94">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ94">
+        <v>1</v>
+      </c>
+      <c r="AK94">
+        <v>1</v>
+      </c>
+      <c r="AL94">
+        <v>1</v>
+      </c>
+      <c r="AM94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:39">
       <c r="A95" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -11395,15 +12250,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI95">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ95">
+        <v>1</v>
+      </c>
+      <c r="AK95">
+        <v>1</v>
+      </c>
+      <c r="AL95">
+        <v>1</v>
+      </c>
+      <c r="AM95">
         <v>1584358</v>
       </c>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:39">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -11502,15 +12366,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI96">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ96">
+        <v>1</v>
+      </c>
+      <c r="AK96">
+        <v>0</v>
+      </c>
+      <c r="AL96">
+        <v>1</v>
+      </c>
+      <c r="AM96">
         <v>694102</v>
       </c>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:39">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -11609,15 +12482,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI97">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ97">
+        <v>1</v>
+      </c>
+      <c r="AK97">
+        <v>1</v>
+      </c>
+      <c r="AL97">
+        <v>1</v>
+      </c>
+      <c r="AM97">
         <v>1086296</v>
       </c>
     </row>
-    <row r="98" spans="1:36">
+    <row r="98" spans="1:39">
       <c r="A98" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -11716,15 +12598,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI98">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ98">
+        <v>1</v>
+      </c>
+      <c r="AK98">
+        <v>0</v>
+      </c>
+      <c r="AL98">
+        <v>1</v>
+      </c>
+      <c r="AM98">
         <v>118262</v>
       </c>
     </row>
-    <row r="99" spans="1:36">
+    <row r="99" spans="1:39">
       <c r="A99" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -11823,15 +12714,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI99">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ99">
+        <v>1</v>
+      </c>
+      <c r="AK99">
+        <v>1</v>
+      </c>
+      <c r="AL99">
+        <v>1</v>
+      </c>
+      <c r="AM99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:36">
+    <row r="100" spans="1:39">
       <c r="A100" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -11930,15 +12830,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI100">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ100">
+        <v>1</v>
+      </c>
+      <c r="AK100">
+        <v>1</v>
+      </c>
+      <c r="AL100">
+        <v>1</v>
+      </c>
+      <c r="AM100">
         <v>1328522</v>
       </c>
     </row>
-    <row r="101" spans="1:36">
+    <row r="101" spans="1:39">
       <c r="A101" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -12037,15 +12946,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI101">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ101">
+        <v>1</v>
+      </c>
+      <c r="AK101">
+        <v>1</v>
+      </c>
+      <c r="AL101">
+        <v>1</v>
+      </c>
+      <c r="AM101">
         <v>1087991</v>
       </c>
     </row>
-    <row r="102" spans="1:36">
+    <row r="102" spans="1:39">
       <c r="A102" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -12144,15 +13062,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI102">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ102">
+        <v>1</v>
+      </c>
+      <c r="AK102">
+        <v>1</v>
+      </c>
+      <c r="AL102">
+        <v>1</v>
+      </c>
+      <c r="AM102">
         <v>454784</v>
       </c>
     </row>
-    <row r="103" spans="1:36">
+    <row r="103" spans="1:39">
       <c r="A103" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -12251,15 +13178,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI103">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ103">
+        <v>1</v>
+      </c>
+      <c r="AK103">
+        <v>1</v>
+      </c>
+      <c r="AL103">
+        <v>1</v>
+      </c>
+      <c r="AM103">
         <v>958078</v>
       </c>
     </row>
-    <row r="104" spans="1:36">
+    <row r="104" spans="1:39">
       <c r="A104" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -12358,15 +13294,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI104">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ104">
+        <v>1</v>
+      </c>
+      <c r="AK104">
+        <v>0</v>
+      </c>
+      <c r="AL104">
+        <v>1</v>
+      </c>
+      <c r="AM104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:36">
+    <row r="105" spans="1:39">
       <c r="A105" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -12465,15 +13410,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI105">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ105">
+        <v>1</v>
+      </c>
+      <c r="AK105">
+        <v>0</v>
+      </c>
+      <c r="AL105">
+        <v>1</v>
+      </c>
+      <c r="AM105">
         <v>9071</v>
       </c>
     </row>
-    <row r="106" spans="1:36">
+    <row r="106" spans="1:39">
       <c r="A106" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -12572,15 +13526,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI106">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ106">
+        <v>1</v>
+      </c>
+      <c r="AK106">
+        <v>1</v>
+      </c>
+      <c r="AL106">
+        <v>1</v>
+      </c>
+      <c r="AM106">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:36">
+    <row r="107" spans="1:39">
       <c r="A107" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -12679,15 +13642,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI107">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ107">
+        <v>1</v>
+      </c>
+      <c r="AK107">
+        <v>0</v>
+      </c>
+      <c r="AL107">
+        <v>1</v>
+      </c>
+      <c r="AM107">
         <v>90000</v>
       </c>
     </row>
-    <row r="108" spans="1:36">
+    <row r="108" spans="1:39">
       <c r="A108" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -12786,15 +13758,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI108">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ108">
+        <v>1</v>
+      </c>
+      <c r="AK108">
+        <v>0</v>
+      </c>
+      <c r="AL108">
+        <v>1</v>
+      </c>
+      <c r="AM108">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:36">
+    <row r="109" spans="1:39">
       <c r="A109" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -12893,15 +13874,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI109">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ109">
+        <v>1</v>
+      </c>
+      <c r="AK109">
+        <v>0</v>
+      </c>
+      <c r="AL109">
+        <v>1</v>
+      </c>
+      <c r="AM109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:36">
+    <row r="110" spans="1:39">
       <c r="A110" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -13000,15 +13990,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI110">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ110">
+        <v>1</v>
+      </c>
+      <c r="AK110">
+        <v>0</v>
+      </c>
+      <c r="AL110">
+        <v>1</v>
+      </c>
+      <c r="AM110">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:36">
+    <row r="111" spans="1:39">
       <c r="A111" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -13107,15 +14106,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI111">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ111">
+        <v>1</v>
+      </c>
+      <c r="AK111">
+        <v>0</v>
+      </c>
+      <c r="AL111">
+        <v>1</v>
+      </c>
+      <c r="AM111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:36">
+    <row r="112" spans="1:39">
       <c r="A112" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -13214,15 +14222,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI112">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ112">
+        <v>1</v>
+      </c>
+      <c r="AK112">
+        <v>0</v>
+      </c>
+      <c r="AL112">
+        <v>1</v>
+      </c>
+      <c r="AM112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:36">
+    <row r="113" spans="1:39">
       <c r="A113" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -13321,15 +14338,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI113">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ113">
+        <v>1</v>
+      </c>
+      <c r="AK113">
+        <v>0</v>
+      </c>
+      <c r="AL113">
+        <v>1</v>
+      </c>
+      <c r="AM113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:36">
+    <row r="114" spans="1:39">
       <c r="A114" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -13428,15 +14454,24 @@
         <v>0.7487193193975596</v>
       </c>
       <c r="AI114">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ114">
+        <v>1</v>
+      </c>
+      <c r="AK114">
+        <v>0</v>
+      </c>
+      <c r="AL114">
+        <v>1</v>
+      </c>
+      <c r="AM114">
         <v>24566</v>
       </c>
     </row>
-    <row r="115" spans="1:36">
+    <row r="115" spans="1:39">
       <c r="A115" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -13535,15 +14570,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI115">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ115">
+        <v>1</v>
+      </c>
+      <c r="AK115">
+        <v>1</v>
+      </c>
+      <c r="AL115">
+        <v>1</v>
+      </c>
+      <c r="AM115">
         <v>655559.825</v>
       </c>
     </row>
-    <row r="116" spans="1:36">
+    <row r="116" spans="1:39">
       <c r="A116" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -13642,15 +14686,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI116">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ116">
+        <v>1</v>
+      </c>
+      <c r="AK116">
+        <v>1</v>
+      </c>
+      <c r="AL116">
+        <v>1</v>
+      </c>
+      <c r="AM116">
         <v>313911.035</v>
       </c>
     </row>
-    <row r="117" spans="1:36">
+    <row r="117" spans="1:39">
       <c r="A117" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -13749,15 +14802,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI117">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ117">
+        <v>1</v>
+      </c>
+      <c r="AK117">
+        <v>0</v>
+      </c>
+      <c r="AL117">
+        <v>1</v>
+      </c>
+      <c r="AM117">
         <v>2859676.68</v>
       </c>
     </row>
-    <row r="118" spans="1:36">
+    <row r="118" spans="1:39">
       <c r="A118" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -13856,15 +14918,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI118">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ118">
+        <v>1</v>
+      </c>
+      <c r="AK118">
+        <v>0</v>
+      </c>
+      <c r="AL118">
+        <v>1</v>
+      </c>
+      <c r="AM118">
         <v>2575281.2</v>
       </c>
     </row>
-    <row r="119" spans="1:36">
+    <row r="119" spans="1:39">
       <c r="A119" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -13963,15 +15034,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI119">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ119">
+        <v>1</v>
+      </c>
+      <c r="AK119">
+        <v>0</v>
+      </c>
+      <c r="AL119">
+        <v>1</v>
+      </c>
+      <c r="AM119">
         <v>78694.66</v>
       </c>
     </row>
-    <row r="120" spans="1:36">
+    <row r="120" spans="1:39">
       <c r="A120" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -14070,15 +15150,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI120">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ120">
+        <v>1</v>
+      </c>
+      <c r="AK120">
+        <v>1</v>
+      </c>
+      <c r="AL120">
+        <v>1</v>
+      </c>
+      <c r="AM120">
         <v>283615.55</v>
       </c>
     </row>
-    <row r="121" spans="1:36">
+    <row r="121" spans="1:39">
       <c r="A121" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -14177,15 +15266,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI121">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ121">
+        <v>1</v>
+      </c>
+      <c r="AK121">
+        <v>1</v>
+      </c>
+      <c r="AL121">
+        <v>1</v>
+      </c>
+      <c r="AM121">
         <v>320499.295</v>
       </c>
     </row>
-    <row r="122" spans="1:36">
+    <row r="122" spans="1:39">
       <c r="A122" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -14284,15 +15382,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI122">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ122">
+        <v>1</v>
+      </c>
+      <c r="AK122">
+        <v>0</v>
+      </c>
+      <c r="AL122">
+        <v>1</v>
+      </c>
+      <c r="AM122">
         <v>1236400.615</v>
       </c>
     </row>
-    <row r="123" spans="1:36">
+    <row r="123" spans="1:39">
       <c r="A123" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -14391,15 +15498,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI123">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ123">
+        <v>1</v>
+      </c>
+      <c r="AK123">
+        <v>0</v>
+      </c>
+      <c r="AL123">
+        <v>1</v>
+      </c>
+      <c r="AM123">
         <v>1269636.165</v>
       </c>
     </row>
-    <row r="124" spans="1:36">
+    <row r="124" spans="1:39">
       <c r="A124" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -14498,15 +15614,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI124">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ124">
+        <v>1</v>
+      </c>
+      <c r="AK124">
+        <v>0</v>
+      </c>
+      <c r="AL124">
+        <v>1</v>
+      </c>
+      <c r="AM124">
         <v>83537.405</v>
       </c>
     </row>
-    <row r="125" spans="1:36">
+    <row r="125" spans="1:39">
       <c r="A125" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -14605,15 +15730,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI125">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ125">
+        <v>1</v>
+      </c>
+      <c r="AK125">
+        <v>1</v>
+      </c>
+      <c r="AL125">
+        <v>1</v>
+      </c>
+      <c r="AM125">
         <v>1030142.415</v>
       </c>
     </row>
-    <row r="126" spans="1:36">
+    <row r="126" spans="1:39">
       <c r="A126" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -14712,15 +15846,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI126">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ126">
+        <v>1</v>
+      </c>
+      <c r="AK126">
+        <v>1</v>
+      </c>
+      <c r="AL126">
+        <v>1</v>
+      </c>
+      <c r="AM126">
         <v>434692.195</v>
       </c>
     </row>
-    <row r="127" spans="1:36">
+    <row r="127" spans="1:39">
       <c r="A127" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -14819,15 +15962,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI127">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ127">
+        <v>1</v>
+      </c>
+      <c r="AK127">
+        <v>0</v>
+      </c>
+      <c r="AL127">
+        <v>1</v>
+      </c>
+      <c r="AM127">
         <v>522034.045</v>
       </c>
     </row>
-    <row r="128" spans="1:36">
+    <row r="128" spans="1:39">
       <c r="A128" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -14926,15 +16078,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI128">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ128">
+        <v>1</v>
+      </c>
+      <c r="AK128">
+        <v>0</v>
+      </c>
+      <c r="AL128">
+        <v>1</v>
+      </c>
+      <c r="AM128">
         <v>707129.865</v>
       </c>
     </row>
-    <row r="129" spans="1:36">
+    <row r="129" spans="1:39">
       <c r="A129" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -15033,15 +16194,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI129">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ129">
+        <v>1</v>
+      </c>
+      <c r="AK129">
+        <v>1</v>
+      </c>
+      <c r="AL129">
+        <v>1</v>
+      </c>
+      <c r="AM129">
         <v>635198.225</v>
       </c>
     </row>
-    <row r="130" spans="1:36">
+    <row r="130" spans="1:39">
       <c r="A130" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -15140,15 +16310,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI130">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ130">
+        <v>1</v>
+      </c>
+      <c r="AK130">
+        <v>1</v>
+      </c>
+      <c r="AL130">
+        <v>1</v>
+      </c>
+      <c r="AM130">
         <v>1049375.66</v>
       </c>
     </row>
-    <row r="131" spans="1:36">
+    <row r="131" spans="1:39">
       <c r="A131" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -15247,15 +16426,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI131">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ131">
+        <v>1</v>
+      </c>
+      <c r="AK131">
+        <v>0</v>
+      </c>
+      <c r="AL131">
+        <v>1</v>
+      </c>
+      <c r="AM131">
         <v>1015230.645</v>
       </c>
     </row>
-    <row r="132" spans="1:36">
+    <row r="132" spans="1:39">
       <c r="A132" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -15354,15 +16542,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI132">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ132">
+        <v>1</v>
+      </c>
+      <c r="AK132">
+        <v>1</v>
+      </c>
+      <c r="AL132">
+        <v>1</v>
+      </c>
+      <c r="AM132">
         <v>387601.03</v>
       </c>
     </row>
-    <row r="133" spans="1:36">
+    <row r="133" spans="1:39">
       <c r="A133" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -15461,15 +16658,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI133">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ133">
+        <v>1</v>
+      </c>
+      <c r="AK133">
+        <v>0</v>
+      </c>
+      <c r="AL133">
+        <v>1</v>
+      </c>
+      <c r="AM133">
         <v>106080.94</v>
       </c>
     </row>
-    <row r="134" spans="1:36">
+    <row r="134" spans="1:39">
       <c r="A134" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -15568,15 +16774,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI134">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ134">
+        <v>1</v>
+      </c>
+      <c r="AK134">
+        <v>1</v>
+      </c>
+      <c r="AL134">
+        <v>1</v>
+      </c>
+      <c r="AM134">
         <v>499512.16</v>
       </c>
     </row>
-    <row r="135" spans="1:36">
+    <row r="135" spans="1:39">
       <c r="A135" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -15675,15 +16890,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI135">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ135">
+        <v>1</v>
+      </c>
+      <c r="AK135">
+        <v>0</v>
+      </c>
+      <c r="AL135">
+        <v>1</v>
+      </c>
+      <c r="AM135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:36">
+    <row r="136" spans="1:39">
       <c r="A136" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -15782,15 +17006,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI136">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ136">
+        <v>1</v>
+      </c>
+      <c r="AK136">
+        <v>0</v>
+      </c>
+      <c r="AL136">
+        <v>1</v>
+      </c>
+      <c r="AM136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:36">
+    <row r="137" spans="1:39">
       <c r="A137" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -15889,15 +17122,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI137">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ137">
+        <v>1</v>
+      </c>
+      <c r="AK137">
+        <v>1</v>
+      </c>
+      <c r="AL137">
+        <v>1</v>
+      </c>
+      <c r="AM137">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:36">
+    <row r="138" spans="1:39">
       <c r="A138" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -15996,15 +17238,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI138">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ138">
+        <v>1</v>
+      </c>
+      <c r="AK138">
+        <v>0</v>
+      </c>
+      <c r="AL138">
+        <v>1</v>
+      </c>
+      <c r="AM138">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:36">
+    <row r="139" spans="1:39">
       <c r="A139" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -16103,15 +17354,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI139">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ139">
+        <v>1</v>
+      </c>
+      <c r="AK139">
+        <v>0</v>
+      </c>
+      <c r="AL139">
+        <v>1</v>
+      </c>
+      <c r="AM139">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:36">
+    <row r="140" spans="1:39">
       <c r="A140" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -16210,15 +17470,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI140">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ140">
+        <v>1</v>
+      </c>
+      <c r="AK140">
+        <v>0</v>
+      </c>
+      <c r="AL140">
+        <v>1</v>
+      </c>
+      <c r="AM140">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:36">
+    <row r="141" spans="1:39">
       <c r="A141" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -16317,15 +17586,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI141">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ141">
+        <v>1</v>
+      </c>
+      <c r="AK141">
+        <v>0</v>
+      </c>
+      <c r="AL141">
+        <v>1</v>
+      </c>
+      <c r="AM141">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:36">
+    <row r="142" spans="1:39">
       <c r="A142" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -16424,15 +17702,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI142">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ142">
+        <v>1</v>
+      </c>
+      <c r="AK142">
+        <v>0</v>
+      </c>
+      <c r="AL142">
+        <v>1</v>
+      </c>
+      <c r="AM142">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:36">
+    <row r="143" spans="1:39">
       <c r="A143" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -16531,15 +17818,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI143">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ143">
+        <v>1</v>
+      </c>
+      <c r="AK143">
+        <v>0</v>
+      </c>
+      <c r="AL143">
+        <v>1</v>
+      </c>
+      <c r="AM143">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:36">
+    <row r="144" spans="1:39">
       <c r="A144" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -16638,15 +17934,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI144">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ144">
+        <v>1</v>
+      </c>
+      <c r="AK144">
+        <v>0</v>
+      </c>
+      <c r="AL144">
+        <v>1</v>
+      </c>
+      <c r="AM144">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:36">
+    <row r="145" spans="1:39">
       <c r="A145" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -16745,15 +18050,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI145">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ145">
+        <v>1</v>
+      </c>
+      <c r="AK145">
+        <v>0</v>
+      </c>
+      <c r="AL145">
+        <v>1</v>
+      </c>
+      <c r="AM145">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:36">
+    <row r="146" spans="1:39">
       <c r="A146" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -16852,15 +18166,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI146">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ146">
+        <v>1</v>
+      </c>
+      <c r="AK146">
+        <v>0</v>
+      </c>
+      <c r="AL146">
+        <v>1</v>
+      </c>
+      <c r="AM146">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:36">
+    <row r="147" spans="1:39">
       <c r="A147" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -16959,15 +18282,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI147">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ147">
+        <v>1</v>
+      </c>
+      <c r="AK147">
+        <v>0</v>
+      </c>
+      <c r="AL147">
+        <v>1</v>
+      </c>
+      <c r="AM147">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:36">
+    <row r="148" spans="1:39">
       <c r="A148" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -17066,15 +18398,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI148">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ148">
+        <v>1</v>
+      </c>
+      <c r="AK148">
+        <v>0</v>
+      </c>
+      <c r="AL148">
+        <v>1</v>
+      </c>
+      <c r="AM148">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:36">
+    <row r="149" spans="1:39">
       <c r="A149" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -17173,15 +18514,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI149">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ149">
+        <v>1</v>
+      </c>
+      <c r="AK149">
+        <v>1</v>
+      </c>
+      <c r="AL149">
+        <v>1</v>
+      </c>
+      <c r="AM149">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:36">
+    <row r="150" spans="1:39">
       <c r="A150" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -17280,15 +18630,24 @@
         <v>0.660050427234262</v>
       </c>
       <c r="AI150">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ150">
+        <v>1</v>
+      </c>
+      <c r="AK150">
+        <v>0</v>
+      </c>
+      <c r="AL150">
+        <v>1</v>
+      </c>
+      <c r="AM150">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:36">
+    <row r="151" spans="1:39">
       <c r="A151" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -17387,15 +18746,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI151">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ151">
+        <v>1</v>
+      </c>
+      <c r="AK151">
+        <v>1</v>
+      </c>
+      <c r="AL151">
+        <v>1</v>
+      </c>
+      <c r="AM151">
         <v>655559.825</v>
       </c>
     </row>
-    <row r="152" spans="1:36">
+    <row r="152" spans="1:39">
       <c r="A152" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -17494,15 +18862,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI152">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ152">
+        <v>1</v>
+      </c>
+      <c r="AK152">
+        <v>1</v>
+      </c>
+      <c r="AL152">
+        <v>1</v>
+      </c>
+      <c r="AM152">
         <v>313911.035</v>
       </c>
     </row>
-    <row r="153" spans="1:36">
+    <row r="153" spans="1:39">
       <c r="A153" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -17601,15 +18978,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI153">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ153">
+        <v>1</v>
+      </c>
+      <c r="AK153">
+        <v>0</v>
+      </c>
+      <c r="AL153">
+        <v>1</v>
+      </c>
+      <c r="AM153">
         <v>2859676.68</v>
       </c>
     </row>
-    <row r="154" spans="1:36">
+    <row r="154" spans="1:39">
       <c r="A154" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -17708,15 +19094,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI154">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ154">
+        <v>1</v>
+      </c>
+      <c r="AK154">
+        <v>0</v>
+      </c>
+      <c r="AL154">
+        <v>1</v>
+      </c>
+      <c r="AM154">
         <v>2575281.2</v>
       </c>
     </row>
-    <row r="155" spans="1:36">
+    <row r="155" spans="1:39">
       <c r="A155" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -17815,15 +19210,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI155">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ155">
+        <v>1</v>
+      </c>
+      <c r="AK155">
+        <v>0</v>
+      </c>
+      <c r="AL155">
+        <v>1</v>
+      </c>
+      <c r="AM155">
         <v>78694.66</v>
       </c>
     </row>
-    <row r="156" spans="1:36">
+    <row r="156" spans="1:39">
       <c r="A156" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -17922,15 +19326,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI156">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ156">
+        <v>1</v>
+      </c>
+      <c r="AK156">
+        <v>1</v>
+      </c>
+      <c r="AL156">
+        <v>1</v>
+      </c>
+      <c r="AM156">
         <v>283615.55</v>
       </c>
     </row>
-    <row r="157" spans="1:36">
+    <row r="157" spans="1:39">
       <c r="A157" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -18029,15 +19442,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI157">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ157">
+        <v>1</v>
+      </c>
+      <c r="AK157">
+        <v>1</v>
+      </c>
+      <c r="AL157">
+        <v>1</v>
+      </c>
+      <c r="AM157">
         <v>320499.295</v>
       </c>
     </row>
-    <row r="158" spans="1:36">
+    <row r="158" spans="1:39">
       <c r="A158" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -18136,15 +19558,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI158">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ158">
+        <v>1</v>
+      </c>
+      <c r="AK158">
+        <v>0</v>
+      </c>
+      <c r="AL158">
+        <v>1</v>
+      </c>
+      <c r="AM158">
         <v>1236400.615</v>
       </c>
     </row>
-    <row r="159" spans="1:36">
+    <row r="159" spans="1:39">
       <c r="A159" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -18243,15 +19674,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI159">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ159">
+        <v>1</v>
+      </c>
+      <c r="AK159">
+        <v>0</v>
+      </c>
+      <c r="AL159">
+        <v>1</v>
+      </c>
+      <c r="AM159">
         <v>1269636.165</v>
       </c>
     </row>
-    <row r="160" spans="1:36">
+    <row r="160" spans="1:39">
       <c r="A160" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -18350,15 +19790,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI160">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ160">
+        <v>1</v>
+      </c>
+      <c r="AK160">
+        <v>0</v>
+      </c>
+      <c r="AL160">
+        <v>1</v>
+      </c>
+      <c r="AM160">
         <v>83537.405</v>
       </c>
     </row>
-    <row r="161" spans="1:36">
+    <row r="161" spans="1:39">
       <c r="A161" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -18457,15 +19906,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI161">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ161">
+        <v>1</v>
+      </c>
+      <c r="AK161">
+        <v>1</v>
+      </c>
+      <c r="AL161">
+        <v>1</v>
+      </c>
+      <c r="AM161">
         <v>1030142.415</v>
       </c>
     </row>
-    <row r="162" spans="1:36">
+    <row r="162" spans="1:39">
       <c r="A162" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -18564,15 +20022,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI162">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ162">
+        <v>1</v>
+      </c>
+      <c r="AK162">
+        <v>1</v>
+      </c>
+      <c r="AL162">
+        <v>1</v>
+      </c>
+      <c r="AM162">
         <v>434692.195</v>
       </c>
     </row>
-    <row r="163" spans="1:36">
+    <row r="163" spans="1:39">
       <c r="A163" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -18671,15 +20138,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI163">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ163">
+        <v>1</v>
+      </c>
+      <c r="AK163">
+        <v>0</v>
+      </c>
+      <c r="AL163">
+        <v>1</v>
+      </c>
+      <c r="AM163">
         <v>522034.045</v>
       </c>
     </row>
-    <row r="164" spans="1:36">
+    <row r="164" spans="1:39">
       <c r="A164" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -18778,15 +20254,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI164">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ164">
+        <v>1</v>
+      </c>
+      <c r="AK164">
+        <v>0</v>
+      </c>
+      <c r="AL164">
+        <v>1</v>
+      </c>
+      <c r="AM164">
         <v>707129.865</v>
       </c>
     </row>
-    <row r="165" spans="1:36">
+    <row r="165" spans="1:39">
       <c r="A165" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -18885,15 +20370,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI165">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ165">
+        <v>1</v>
+      </c>
+      <c r="AK165">
+        <v>1</v>
+      </c>
+      <c r="AL165">
+        <v>1</v>
+      </c>
+      <c r="AM165">
         <v>635198.225</v>
       </c>
     </row>
-    <row r="166" spans="1:36">
+    <row r="166" spans="1:39">
       <c r="A166" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -18992,15 +20486,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI166">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ166">
+        <v>1</v>
+      </c>
+      <c r="AK166">
+        <v>1</v>
+      </c>
+      <c r="AL166">
+        <v>1</v>
+      </c>
+      <c r="AM166">
         <v>1049375.66</v>
       </c>
     </row>
-    <row r="167" spans="1:36">
+    <row r="167" spans="1:39">
       <c r="A167" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -19099,15 +20602,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI167">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ167">
+        <v>1</v>
+      </c>
+      <c r="AK167">
+        <v>0</v>
+      </c>
+      <c r="AL167">
+        <v>1</v>
+      </c>
+      <c r="AM167">
         <v>1015230.645</v>
       </c>
     </row>
-    <row r="168" spans="1:36">
+    <row r="168" spans="1:39">
       <c r="A168" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -19206,15 +20718,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI168">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ168">
+        <v>1</v>
+      </c>
+      <c r="AK168">
+        <v>1</v>
+      </c>
+      <c r="AL168">
+        <v>1</v>
+      </c>
+      <c r="AM168">
         <v>387601.03</v>
       </c>
     </row>
-    <row r="169" spans="1:36">
+    <row r="169" spans="1:39">
       <c r="A169" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -19313,15 +20834,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI169">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ169">
+        <v>1</v>
+      </c>
+      <c r="AK169">
+        <v>0</v>
+      </c>
+      <c r="AL169">
+        <v>1</v>
+      </c>
+      <c r="AM169">
         <v>106080.94</v>
       </c>
     </row>
-    <row r="170" spans="1:36">
+    <row r="170" spans="1:39">
       <c r="A170" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -19420,15 +20950,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI170">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ170">
+        <v>1</v>
+      </c>
+      <c r="AK170">
+        <v>1</v>
+      </c>
+      <c r="AL170">
+        <v>1</v>
+      </c>
+      <c r="AM170">
         <v>499512.16</v>
       </c>
     </row>
-    <row r="171" spans="1:36">
+    <row r="171" spans="1:39">
       <c r="A171" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -19527,15 +21066,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI171">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ171">
+        <v>1</v>
+      </c>
+      <c r="AK171">
+        <v>0</v>
+      </c>
+      <c r="AL171">
+        <v>1</v>
+      </c>
+      <c r="AM171">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:36">
+    <row r="172" spans="1:39">
       <c r="A172" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -19634,15 +21182,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI172">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ172">
+        <v>1</v>
+      </c>
+      <c r="AK172">
+        <v>0</v>
+      </c>
+      <c r="AL172">
+        <v>1</v>
+      </c>
+      <c r="AM172">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:36">
+    <row r="173" spans="1:39">
       <c r="A173" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -19741,15 +21298,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI173">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ173">
+        <v>1</v>
+      </c>
+      <c r="AK173">
+        <v>1</v>
+      </c>
+      <c r="AL173">
+        <v>1</v>
+      </c>
+      <c r="AM173">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:36">
+    <row r="174" spans="1:39">
       <c r="A174" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -19848,15 +21414,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI174">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ174">
+        <v>1</v>
+      </c>
+      <c r="AK174">
+        <v>0</v>
+      </c>
+      <c r="AL174">
+        <v>1</v>
+      </c>
+      <c r="AM174">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:36">
+    <row r="175" spans="1:39">
       <c r="A175" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -19955,15 +21530,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI175">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ175">
+        <v>1</v>
+      </c>
+      <c r="AK175">
+        <v>0</v>
+      </c>
+      <c r="AL175">
+        <v>1</v>
+      </c>
+      <c r="AM175">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:36">
+    <row r="176" spans="1:39">
       <c r="A176" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -20062,15 +21646,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI176">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ176">
+        <v>1</v>
+      </c>
+      <c r="AK176">
+        <v>0</v>
+      </c>
+      <c r="AL176">
+        <v>1</v>
+      </c>
+      <c r="AM176">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:36">
+    <row r="177" spans="1:39">
       <c r="A177" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -20169,15 +21762,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI177">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ177">
+        <v>1</v>
+      </c>
+      <c r="AK177">
+        <v>0</v>
+      </c>
+      <c r="AL177">
+        <v>1</v>
+      </c>
+      <c r="AM177">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:36">
+    <row r="178" spans="1:39">
       <c r="A178" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -20276,15 +21878,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI178">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ178">
+        <v>1</v>
+      </c>
+      <c r="AK178">
+        <v>0</v>
+      </c>
+      <c r="AL178">
+        <v>1</v>
+      </c>
+      <c r="AM178">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:36">
+    <row r="179" spans="1:39">
       <c r="A179" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -20383,15 +21994,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI179">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ179">
+        <v>1</v>
+      </c>
+      <c r="AK179">
+        <v>0</v>
+      </c>
+      <c r="AL179">
+        <v>1</v>
+      </c>
+      <c r="AM179">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:36">
+    <row r="180" spans="1:39">
       <c r="A180" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -20490,15 +22110,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI180">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ180">
+        <v>1</v>
+      </c>
+      <c r="AK180">
+        <v>0</v>
+      </c>
+      <c r="AL180">
+        <v>1</v>
+      </c>
+      <c r="AM180">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:36">
+    <row r="181" spans="1:39">
       <c r="A181" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -20597,15 +22226,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI181">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ181">
+        <v>1</v>
+      </c>
+      <c r="AK181">
+        <v>0</v>
+      </c>
+      <c r="AL181">
+        <v>1</v>
+      </c>
+      <c r="AM181">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:36">
+    <row r="182" spans="1:39">
       <c r="A182" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -20704,15 +22342,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI182">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ182">
+        <v>1</v>
+      </c>
+      <c r="AK182">
+        <v>0</v>
+      </c>
+      <c r="AL182">
+        <v>1</v>
+      </c>
+      <c r="AM182">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:36">
+    <row r="183" spans="1:39">
       <c r="A183" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -20811,15 +22458,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI183">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ183">
+        <v>1</v>
+      </c>
+      <c r="AK183">
+        <v>0</v>
+      </c>
+      <c r="AL183">
+        <v>1</v>
+      </c>
+      <c r="AM183">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:36">
+    <row r="184" spans="1:39">
       <c r="A184" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -20918,15 +22574,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI184">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ184">
+        <v>1</v>
+      </c>
+      <c r="AK184">
+        <v>0</v>
+      </c>
+      <c r="AL184">
+        <v>1</v>
+      </c>
+      <c r="AM184">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:36">
+    <row r="185" spans="1:39">
       <c r="A185" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -21025,15 +22690,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI185">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ185">
+        <v>1</v>
+      </c>
+      <c r="AK185">
+        <v>1</v>
+      </c>
+      <c r="AL185">
+        <v>1</v>
+      </c>
+      <c r="AM185">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:36">
+    <row r="186" spans="1:39">
       <c r="A186" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -21132,15 +22806,24 @@
         <v>0.571691527783048</v>
       </c>
       <c r="AI186">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ186">
+        <v>1</v>
+      </c>
+      <c r="AK186">
+        <v>0</v>
+      </c>
+      <c r="AL186">
+        <v>1</v>
+      </c>
+      <c r="AM186">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:36">
+    <row r="187" spans="1:39">
       <c r="A187" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -21239,15 +22922,24 @@
         <v>0.5517178989413426</v>
       </c>
       <c r="AI187">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ187">
+        <v>1</v>
+      </c>
+      <c r="AK187">
+        <v>1</v>
+      </c>
+      <c r="AL187">
+        <v>1</v>
+      </c>
+      <c r="AM187">
         <v>543147.845</v>
       </c>
     </row>
-    <row r="188" spans="1:36">
+    <row r="188" spans="1:39">
       <c r="A188" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -21346,15 +23038,24 @@
         <v>0.5517178989413426</v>
       </c>
       <c r="AI188">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ188">
+        <v>1</v>
+      </c>
+      <c r="AK188">
+        <v>0</v>
+      </c>
+      <c r="AL188">
+        <v>1</v>
+      </c>
+      <c r="AM188">
         <v>59131</v>
       </c>
     </row>
-    <row r="189" spans="1:36">
+    <row r="189" spans="1:39">
       <c r="A189" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -21453,15 +23154,24 @@
         <v>0.5517178989413426</v>
       </c>
       <c r="AI189">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ189">
+        <v>1</v>
+      </c>
+      <c r="AK189">
+        <v>0</v>
+      </c>
+      <c r="AL189">
+        <v>1</v>
+      </c>
+      <c r="AM189">
         <v>2308814.5</v>
       </c>
     </row>
-    <row r="190" spans="1:36">
+    <row r="190" spans="1:39">
       <c r="A190" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -21560,15 +23270,24 @@
         <v>0.5517178989413426</v>
       </c>
       <c r="AI190">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ190">
+        <v>1</v>
+      </c>
+      <c r="AK190">
+        <v>0</v>
+      </c>
+      <c r="AL190">
+        <v>1</v>
+      </c>
+      <c r="AM190">
         <v>908204.5</v>
       </c>
     </row>
-    <row r="191" spans="1:36">
+    <row r="191" spans="1:39">
       <c r="A191" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -21667,15 +23386,24 @@
         <v>0.5517178989413426</v>
       </c>
       <c r="AI191">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ191">
+        <v>1</v>
+      </c>
+      <c r="AK191">
+        <v>0</v>
+      </c>
+      <c r="AL191">
+        <v>1</v>
+      </c>
+      <c r="AM191">
         <v>4283279</v>
       </c>
     </row>
-    <row r="192" spans="1:36">
+    <row r="192" spans="1:39">
       <c r="A192" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -21774,15 +23502,24 @@
         <v>0.5517178989413426</v>
       </c>
       <c r="AI192">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ192">
+        <v>1</v>
+      </c>
+      <c r="AK192">
+        <v>1</v>
+      </c>
+      <c r="AL192">
+        <v>1</v>
+      </c>
+      <c r="AM192">
         <v>664260.985</v>
       </c>
     </row>
-    <row r="193" spans="1:36">
+    <row r="193" spans="1:39">
       <c r="A193" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -21881,15 +23618,24 @@
         <v>0.5517178989413426</v>
       </c>
       <c r="AI193">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ193">
+        <v>1</v>
+      </c>
+      <c r="AK193">
+        <v>1</v>
+      </c>
+      <c r="AL193">
+        <v>1</v>
+      </c>
+      <c r="AM193">
         <v>167163.63</v>
       </c>
     </row>
-    <row r="194" spans="1:36">
+    <row r="194" spans="1:39">
       <c r="A194" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -21988,15 +23734,24 @@
         <v>0.5517178989413426</v>
       </c>
       <c r="AI194">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ194">
+        <v>1</v>
+      </c>
+      <c r="AK194">
+        <v>1</v>
+      </c>
+      <c r="AL194">
+        <v>1</v>
+      </c>
+      <c r="AM194">
         <v>543995.6800000001</v>
       </c>
     </row>
-    <row r="195" spans="1:36">
+    <row r="195" spans="1:39">
       <c r="A195" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -22095,15 +23850,24 @@
         <v>0.5517178989413426</v>
       </c>
       <c r="AI195">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ195">
+        <v>1</v>
+      </c>
+      <c r="AK195">
+        <v>1</v>
+      </c>
+      <c r="AL195">
+        <v>1</v>
+      </c>
+      <c r="AM195">
         <v>36775.955</v>
       </c>
     </row>
-    <row r="196" spans="1:36">
+    <row r="196" spans="1:39">
       <c r="A196" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -22202,15 +23966,24 @@
         <v>0.5517178989413426</v>
       </c>
       <c r="AI196">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ196">
+        <v>1</v>
+      </c>
+      <c r="AK196">
+        <v>0</v>
+      </c>
+      <c r="AL196">
+        <v>1</v>
+      </c>
+      <c r="AM196">
         <v>1548333.5</v>
       </c>
     </row>
-    <row r="197" spans="1:36">
+    <row r="197" spans="1:39">
       <c r="A197" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -22309,15 +24082,24 @@
         <v>0.5517178989413426</v>
       </c>
       <c r="AI197">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ197">
+        <v>1</v>
+      </c>
+      <c r="AK197">
+        <v>1</v>
+      </c>
+      <c r="AL197">
+        <v>1</v>
+      </c>
+      <c r="AM197">
         <v>485273.145</v>
       </c>
     </row>
-    <row r="198" spans="1:36">
+    <row r="198" spans="1:39">
       <c r="A198" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -22416,15 +24198,24 @@
         <v>0.5517178989413426</v>
       </c>
       <c r="AI198">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ198">
+        <v>1</v>
+      </c>
+      <c r="AK198">
+        <v>0</v>
+      </c>
+      <c r="AL198">
+        <v>1</v>
+      </c>
+      <c r="AM198">
         <v>3447990.71</v>
       </c>
     </row>
-    <row r="199" spans="1:36">
+    <row r="199" spans="1:39">
       <c r="A199" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -22523,15 +24314,24 @@
         <v>0.5517178989413426</v>
       </c>
       <c r="AI199">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ199">
+        <v>1</v>
+      </c>
+      <c r="AK199">
+        <v>1</v>
+      </c>
+      <c r="AL199">
+        <v>1</v>
+      </c>
+      <c r="AM199">
         <v>534985</v>
       </c>
     </row>
-    <row r="200" spans="1:36">
+    <row r="200" spans="1:39">
       <c r="A200" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -22630,15 +24430,24 @@
         <v>0.5517178989413426</v>
       </c>
       <c r="AI200">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ200">
+        <v>1</v>
+      </c>
+      <c r="AK200">
+        <v>0</v>
+      </c>
+      <c r="AL200">
+        <v>1</v>
+      </c>
+      <c r="AM200">
         <v>2273783.5</v>
       </c>
     </row>
-    <row r="201" spans="1:36">
+    <row r="201" spans="1:39">
       <c r="A201" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -22737,15 +24546,24 @@
         <v>0.5517178989413426</v>
       </c>
       <c r="AI201">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ201">
+        <v>1</v>
+      </c>
+      <c r="AK201">
+        <v>0</v>
+      </c>
+      <c r="AL201">
+        <v>1</v>
+      </c>
+      <c r="AM201">
         <v>119423.91</v>
       </c>
     </row>
-    <row r="202" spans="1:36">
+    <row r="202" spans="1:39">
       <c r="A202" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -22844,15 +24662,24 @@
         <v>0.5517178989413426</v>
       </c>
       <c r="AI202">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ202">
+        <v>1</v>
+      </c>
+      <c r="AK202">
+        <v>1</v>
+      </c>
+      <c r="AL202">
+        <v>1</v>
+      </c>
+      <c r="AM202">
         <v>792179.165</v>
       </c>
     </row>
-    <row r="203" spans="1:36">
+    <row r="203" spans="1:39">
       <c r="A203" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -22951,15 +24778,24 @@
         <v>0.5517178989413426</v>
       </c>
       <c r="AI203">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ203">
+        <v>1</v>
+      </c>
+      <c r="AK203">
+        <v>1</v>
+      </c>
+      <c r="AL203">
+        <v>1</v>
+      </c>
+      <c r="AM203">
         <v>227392.085</v>
       </c>
     </row>
-    <row r="204" spans="1:36">
+    <row r="204" spans="1:39">
       <c r="A204" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -23058,15 +24894,24 @@
         <v>0.5517178989413426</v>
       </c>
       <c r="AI204">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ204">
+        <v>1</v>
+      </c>
+      <c r="AK204">
+        <v>1</v>
+      </c>
+      <c r="AL204">
+        <v>1</v>
+      </c>
+      <c r="AM204">
         <v>479039.195</v>
       </c>
     </row>
-    <row r="205" spans="1:36">
+    <row r="205" spans="1:39">
       <c r="A205" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -23165,15 +25010,24 @@
         <v>0.5517178989413426</v>
       </c>
       <c r="AI205">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ205">
+        <v>1</v>
+      </c>
+      <c r="AK205">
+        <v>0</v>
+      </c>
+      <c r="AL205">
+        <v>1</v>
+      </c>
+      <c r="AM205">
         <v>3134001.5</v>
       </c>
     </row>
-    <row r="206" spans="1:36">
+    <row r="206" spans="1:39">
       <c r="A206" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -23272,15 +25126,24 @@
         <v>0.5517178989413426</v>
       </c>
       <c r="AI206">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ206">
+        <v>1</v>
+      </c>
+      <c r="AK206">
+        <v>0</v>
+      </c>
+      <c r="AL206">
+        <v>1</v>
+      </c>
+      <c r="AM206">
         <v>347051.04</v>
       </c>
     </row>
-    <row r="207" spans="1:36">
+    <row r="207" spans="1:39">
       <c r="A207" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -23379,15 +25242,24 @@
         <v>0.5517178989413426</v>
       </c>
       <c r="AI207">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ207">
+        <v>1</v>
+      </c>
+      <c r="AK207">
+        <v>0</v>
+      </c>
+      <c r="AL207">
+        <v>1</v>
+      </c>
+      <c r="AM207">
         <v>1850188.5</v>
       </c>
     </row>
-    <row r="208" spans="1:36">
+    <row r="208" spans="1:39">
       <c r="A208" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -23486,15 +25358,24 @@
         <v>0.7671284272101353</v>
       </c>
       <c r="AI208">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ208">
+        <v>1</v>
+      </c>
+      <c r="AK208">
+        <v>1</v>
+      </c>
+      <c r="AL208">
+        <v>1</v>
+      </c>
+      <c r="AM208">
         <v>543147.845</v>
       </c>
     </row>
-    <row r="209" spans="1:36">
+    <row r="209" spans="1:39">
       <c r="A209" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -23593,15 +25474,24 @@
         <v>0.7671284272101353</v>
       </c>
       <c r="AI209">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ209">
+        <v>1</v>
+      </c>
+      <c r="AK209">
+        <v>0</v>
+      </c>
+      <c r="AL209">
+        <v>1</v>
+      </c>
+      <c r="AM209">
         <v>59131</v>
       </c>
     </row>
-    <row r="210" spans="1:36">
+    <row r="210" spans="1:39">
       <c r="A210" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -23700,15 +25590,24 @@
         <v>0.7671284272101353</v>
       </c>
       <c r="AI210">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ210">
+        <v>1</v>
+      </c>
+      <c r="AK210">
+        <v>0</v>
+      </c>
+      <c r="AL210">
+        <v>1</v>
+      </c>
+      <c r="AM210">
         <v>2308814.5</v>
       </c>
     </row>
-    <row r="211" spans="1:36">
+    <row r="211" spans="1:39">
       <c r="A211" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -23807,15 +25706,24 @@
         <v>0.7671284272101353</v>
       </c>
       <c r="AI211">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ211">
+        <v>1</v>
+      </c>
+      <c r="AK211">
+        <v>0</v>
+      </c>
+      <c r="AL211">
+        <v>1</v>
+      </c>
+      <c r="AM211">
         <v>908204.5</v>
       </c>
     </row>
-    <row r="212" spans="1:36">
+    <row r="212" spans="1:39">
       <c r="A212" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -23914,15 +25822,24 @@
         <v>0.7671284272101353</v>
       </c>
       <c r="AI212">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ212">
+        <v>1</v>
+      </c>
+      <c r="AK212">
+        <v>0</v>
+      </c>
+      <c r="AL212">
+        <v>1</v>
+      </c>
+      <c r="AM212">
         <v>4283279</v>
       </c>
     </row>
-    <row r="213" spans="1:36">
+    <row r="213" spans="1:39">
       <c r="A213" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -24021,15 +25938,24 @@
         <v>0.7671284272101353</v>
       </c>
       <c r="AI213">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ213">
+        <v>1</v>
+      </c>
+      <c r="AK213">
+        <v>1</v>
+      </c>
+      <c r="AL213">
+        <v>1</v>
+      </c>
+      <c r="AM213">
         <v>664260.985</v>
       </c>
     </row>
-    <row r="214" spans="1:36">
+    <row r="214" spans="1:39">
       <c r="A214" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -24128,15 +26054,24 @@
         <v>0.7671284272101353</v>
       </c>
       <c r="AI214">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ214">
+        <v>1</v>
+      </c>
+      <c r="AK214">
+        <v>1</v>
+      </c>
+      <c r="AL214">
+        <v>1</v>
+      </c>
+      <c r="AM214">
         <v>167163.63</v>
       </c>
     </row>
-    <row r="215" spans="1:36">
+    <row r="215" spans="1:39">
       <c r="A215" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -24235,15 +26170,24 @@
         <v>0.7671284272101353</v>
       </c>
       <c r="AI215">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ215">
+        <v>1</v>
+      </c>
+      <c r="AK215">
+        <v>1</v>
+      </c>
+      <c r="AL215">
+        <v>1</v>
+      </c>
+      <c r="AM215">
         <v>543995.6800000001</v>
       </c>
     </row>
-    <row r="216" spans="1:36">
+    <row r="216" spans="1:39">
       <c r="A216" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -24342,15 +26286,24 @@
         <v>0.7671284272101353</v>
       </c>
       <c r="AI216">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ216">
+        <v>1</v>
+      </c>
+      <c r="AK216">
+        <v>1</v>
+      </c>
+      <c r="AL216">
+        <v>1</v>
+      </c>
+      <c r="AM216">
         <v>36775.955</v>
       </c>
     </row>
-    <row r="217" spans="1:36">
+    <row r="217" spans="1:39">
       <c r="A217" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -24449,15 +26402,24 @@
         <v>0.7671284272101353</v>
       </c>
       <c r="AI217">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ217">
+        <v>1</v>
+      </c>
+      <c r="AK217">
+        <v>0</v>
+      </c>
+      <c r="AL217">
+        <v>1</v>
+      </c>
+      <c r="AM217">
         <v>1548333.5</v>
       </c>
     </row>
-    <row r="218" spans="1:36">
+    <row r="218" spans="1:39">
       <c r="A218" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -24556,15 +26518,24 @@
         <v>0.7671284272101353</v>
       </c>
       <c r="AI218">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ218">
+        <v>1</v>
+      </c>
+      <c r="AK218">
+        <v>1</v>
+      </c>
+      <c r="AL218">
+        <v>1</v>
+      </c>
+      <c r="AM218">
         <v>485273.145</v>
       </c>
     </row>
-    <row r="219" spans="1:36">
+    <row r="219" spans="1:39">
       <c r="A219" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -24663,15 +26634,24 @@
         <v>0.7671284272101353</v>
       </c>
       <c r="AI219">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ219">
+        <v>1</v>
+      </c>
+      <c r="AK219">
+        <v>0</v>
+      </c>
+      <c r="AL219">
+        <v>1</v>
+      </c>
+      <c r="AM219">
         <v>3447990.71</v>
       </c>
     </row>
-    <row r="220" spans="1:36">
+    <row r="220" spans="1:39">
       <c r="A220" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -24770,15 +26750,24 @@
         <v>0.7671284272101353</v>
       </c>
       <c r="AI220">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ220">
+        <v>1</v>
+      </c>
+      <c r="AK220">
+        <v>1</v>
+      </c>
+      <c r="AL220">
+        <v>1</v>
+      </c>
+      <c r="AM220">
         <v>534985</v>
       </c>
     </row>
-    <row r="221" spans="1:36">
+    <row r="221" spans="1:39">
       <c r="A221" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -24877,15 +26866,24 @@
         <v>0.7671284272101353</v>
       </c>
       <c r="AI221">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ221">
+        <v>1</v>
+      </c>
+      <c r="AK221">
+        <v>0</v>
+      </c>
+      <c r="AL221">
+        <v>1</v>
+      </c>
+      <c r="AM221">
         <v>2273783.5</v>
       </c>
     </row>
-    <row r="222" spans="1:36">
+    <row r="222" spans="1:39">
       <c r="A222" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -24984,15 +26982,24 @@
         <v>0.7671284272101353</v>
       </c>
       <c r="AI222">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ222">
+        <v>1</v>
+      </c>
+      <c r="AK222">
+        <v>0</v>
+      </c>
+      <c r="AL222">
+        <v>1</v>
+      </c>
+      <c r="AM222">
         <v>119423.91</v>
       </c>
     </row>
-    <row r="223" spans="1:36">
+    <row r="223" spans="1:39">
       <c r="A223" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -25091,15 +27098,24 @@
         <v>0.7671284272101353</v>
       </c>
       <c r="AI223">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ223">
+        <v>1</v>
+      </c>
+      <c r="AK223">
+        <v>1</v>
+      </c>
+      <c r="AL223">
+        <v>1</v>
+      </c>
+      <c r="AM223">
         <v>792179.165</v>
       </c>
     </row>
-    <row r="224" spans="1:36">
+    <row r="224" spans="1:39">
       <c r="A224" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -25198,15 +27214,24 @@
         <v>0.7671284272101353</v>
       </c>
       <c r="AI224">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ224">
+        <v>1</v>
+      </c>
+      <c r="AK224">
+        <v>1</v>
+      </c>
+      <c r="AL224">
+        <v>1</v>
+      </c>
+      <c r="AM224">
         <v>227392.085</v>
       </c>
     </row>
-    <row r="225" spans="1:36">
+    <row r="225" spans="1:39">
       <c r="A225" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -25305,15 +27330,24 @@
         <v>0.7671284272101353</v>
       </c>
       <c r="AI225">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ225">
+        <v>1</v>
+      </c>
+      <c r="AK225">
+        <v>1</v>
+      </c>
+      <c r="AL225">
+        <v>1</v>
+      </c>
+      <c r="AM225">
         <v>479039.195</v>
       </c>
     </row>
-    <row r="226" spans="1:36">
+    <row r="226" spans="1:39">
       <c r="A226" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -25412,15 +27446,24 @@
         <v>0.7671284272101353</v>
       </c>
       <c r="AI226">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ226">
+        <v>1</v>
+      </c>
+      <c r="AK226">
+        <v>0</v>
+      </c>
+      <c r="AL226">
+        <v>1</v>
+      </c>
+      <c r="AM226">
         <v>3134001.5</v>
       </c>
     </row>
-    <row r="227" spans="1:36">
+    <row r="227" spans="1:39">
       <c r="A227" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -25519,15 +27562,24 @@
         <v>0.7671284272101353</v>
       </c>
       <c r="AI227">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ227">
+        <v>1</v>
+      </c>
+      <c r="AK227">
+        <v>0</v>
+      </c>
+      <c r="AL227">
+        <v>1</v>
+      </c>
+      <c r="AM227">
         <v>347051.04</v>
       </c>
     </row>
-    <row r="228" spans="1:36">
+    <row r="228" spans="1:39">
       <c r="A228" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -25626,15 +27678,24 @@
         <v>0.7671284272101353</v>
       </c>
       <c r="AI228">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ228">
+        <v>1</v>
+      </c>
+      <c r="AK228">
+        <v>0</v>
+      </c>
+      <c r="AL228">
+        <v>1</v>
+      </c>
+      <c r="AM228">
         <v>1850188.5</v>
       </c>
     </row>
-    <row r="229" spans="1:36">
+    <row r="229" spans="1:39">
       <c r="A229" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -25733,15 +27794,24 @@
         <v>0.610478932262621</v>
       </c>
       <c r="AI229">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ229">
+        <v>1</v>
+      </c>
+      <c r="AK229">
+        <v>1</v>
+      </c>
+      <c r="AL229">
+        <v>1</v>
+      </c>
+      <c r="AM229">
         <v>1295606</v>
       </c>
     </row>
-    <row r="230" spans="1:36">
+    <row r="230" spans="1:39">
       <c r="A230" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -25840,15 +27910,24 @@
         <v>0.610478932262621</v>
       </c>
       <c r="AI230">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ230">
+        <v>1</v>
+      </c>
+      <c r="AK230">
+        <v>0</v>
+      </c>
+      <c r="AL230">
+        <v>1</v>
+      </c>
+      <c r="AM230">
         <v>8279210</v>
       </c>
     </row>
-    <row r="231" spans="1:36">
+    <row r="231" spans="1:39">
       <c r="A231" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -25947,15 +28026,24 @@
         <v>0.610478932262621</v>
       </c>
       <c r="AI231">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ231">
+        <v>1</v>
+      </c>
+      <c r="AK231">
+        <v>0</v>
+      </c>
+      <c r="AL231">
+        <v>1</v>
+      </c>
+      <c r="AM231">
         <v>2862202</v>
       </c>
     </row>
-    <row r="232" spans="1:36">
+    <row r="232" spans="1:39">
       <c r="A232" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -26054,15 +28142,24 @@
         <v>0.610478932262621</v>
       </c>
       <c r="AI232">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ232">
+        <v>1</v>
+      </c>
+      <c r="AK232">
+        <v>0</v>
+      </c>
+      <c r="AL232">
+        <v>1</v>
+      </c>
+      <c r="AM232">
         <v>12381223</v>
       </c>
     </row>
-    <row r="233" spans="1:36">
+    <row r="233" spans="1:39">
       <c r="A233" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -26161,21 +28258,30 @@
         <v>0.610478932262621</v>
       </c>
       <c r="AI233">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ233">
+        <v>1</v>
+      </c>
+      <c r="AK233">
+        <v>1</v>
+      </c>
+      <c r="AL233">
+        <v>1</v>
+      </c>
+      <c r="AM233">
         <v>1785337</v>
       </c>
     </row>
-    <row r="234" spans="1:36">
+    <row r="234" spans="1:39">
       <c r="A234" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B234">
         <v>0</v>
       </c>
       <c r="C234" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -26268,15 +28374,24 @@
         <v>0.610478932262621</v>
       </c>
       <c r="AI234">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ234">
+        <v>1</v>
+      </c>
+      <c r="AK234">
+        <v>1</v>
+      </c>
+      <c r="AL234">
+        <v>1</v>
+      </c>
+      <c r="AM234">
         <v>240512</v>
       </c>
     </row>
-    <row r="235" spans="1:36">
+    <row r="235" spans="1:39">
       <c r="A235" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -26375,15 +28490,24 @@
         <v>0.610478932262621</v>
       </c>
       <c r="AI235">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ235">
+        <v>1</v>
+      </c>
+      <c r="AK235">
+        <v>1</v>
+      </c>
+      <c r="AL235">
+        <v>1</v>
+      </c>
+      <c r="AM235">
         <v>571382</v>
       </c>
     </row>
-    <row r="236" spans="1:36">
+    <row r="236" spans="1:39">
       <c r="A236" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -26482,15 +28606,24 @@
         <v>0.610478932262621</v>
       </c>
       <c r="AI236">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ236">
+        <v>1</v>
+      </c>
+      <c r="AK236">
+        <v>0</v>
+      </c>
+      <c r="AL236">
+        <v>1</v>
+      </c>
+      <c r="AM236">
         <v>1251432</v>
       </c>
     </row>
-    <row r="237" spans="1:36">
+    <row r="237" spans="1:39">
       <c r="A237" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -26589,15 +28722,24 @@
         <v>0.610478932262621</v>
       </c>
       <c r="AI237">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ237">
+        <v>1</v>
+      </c>
+      <c r="AK237">
+        <v>1</v>
+      </c>
+      <c r="AL237">
+        <v>1</v>
+      </c>
+      <c r="AM237">
         <v>1758647</v>
       </c>
     </row>
-    <row r="238" spans="1:36">
+    <row r="238" spans="1:39">
       <c r="A238" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -26696,15 +28838,24 @@
         <v>0.610478932262621</v>
       </c>
       <c r="AI238">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ238">
+        <v>1</v>
+      </c>
+      <c r="AK238">
+        <v>0</v>
+      </c>
+      <c r="AL238">
+        <v>1</v>
+      </c>
+      <c r="AM238">
         <v>5960803</v>
       </c>
     </row>
-    <row r="239" spans="1:36">
+    <row r="239" spans="1:39">
       <c r="A239" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -26803,15 +28954,24 @@
         <v>0.610478932262621</v>
       </c>
       <c r="AI239">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ239">
+        <v>1</v>
+      </c>
+      <c r="AK239">
+        <v>1</v>
+      </c>
+      <c r="AL239">
+        <v>1</v>
+      </c>
+      <c r="AM239">
         <v>448594</v>
       </c>
     </row>
-    <row r="240" spans="1:36">
+    <row r="240" spans="1:39">
       <c r="A240" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -26910,15 +29070,24 @@
         <v>0.610478932262621</v>
       </c>
       <c r="AI240">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ240">
+        <v>1</v>
+      </c>
+      <c r="AK240">
+        <v>0</v>
+      </c>
+      <c r="AL240">
+        <v>1</v>
+      </c>
+      <c r="AM240">
         <v>280374</v>
       </c>
     </row>
-    <row r="241" spans="1:36">
+    <row r="241" spans="1:39">
       <c r="A241" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -27017,15 +29186,24 @@
         <v>0.610478932262621</v>
       </c>
       <c r="AI241">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ241">
+        <v>1</v>
+      </c>
+      <c r="AK241">
+        <v>0</v>
+      </c>
+      <c r="AL241">
+        <v>1</v>
+      </c>
+      <c r="AM241">
         <v>16189</v>
       </c>
     </row>
-    <row r="242" spans="1:36">
+    <row r="242" spans="1:39">
       <c r="A242" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -27124,15 +29302,24 @@
         <v>0.610478932262621</v>
       </c>
       <c r="AI242">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ242">
+        <v>1</v>
+      </c>
+      <c r="AK242">
+        <v>1</v>
+      </c>
+      <c r="AL242">
+        <v>1</v>
+      </c>
+      <c r="AM242">
         <v>807721</v>
       </c>
     </row>
-    <row r="243" spans="1:36">
+    <row r="243" spans="1:39">
       <c r="A243" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -27231,15 +29418,24 @@
         <v>0.610478932262621</v>
       </c>
       <c r="AI243">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ243">
+        <v>1</v>
+      </c>
+      <c r="AK243">
+        <v>0</v>
+      </c>
+      <c r="AL243">
+        <v>1</v>
+      </c>
+      <c r="AM243">
         <v>4951524</v>
       </c>
     </row>
-    <row r="244" spans="1:36">
+    <row r="244" spans="1:39">
       <c r="A244" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -27338,15 +29534,24 @@
         <v>0.610478932262621</v>
       </c>
       <c r="AI244">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ244">
+        <v>1</v>
+      </c>
+      <c r="AK244">
+        <v>0</v>
+      </c>
+      <c r="AL244">
+        <v>1</v>
+      </c>
+      <c r="AM244">
         <v>30590</v>
       </c>
     </row>
-    <row r="245" spans="1:36">
+    <row r="245" spans="1:39">
       <c r="A245" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -27445,15 +29650,24 @@
         <v>0.610478932262621</v>
       </c>
       <c r="AI245">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ245">
+        <v>1</v>
+      </c>
+      <c r="AK245">
+        <v>0</v>
+      </c>
+      <c r="AL245">
+        <v>1</v>
+      </c>
+      <c r="AM245">
         <v>639000</v>
       </c>
     </row>
-    <row r="246" spans="1:36">
+    <row r="246" spans="1:39">
       <c r="A246" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -27552,15 +29766,24 @@
         <v>0.610478932262621</v>
       </c>
       <c r="AI246">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ246">
+        <v>1</v>
+      </c>
+      <c r="AK246">
+        <v>1</v>
+      </c>
+      <c r="AL246">
+        <v>1</v>
+      </c>
+      <c r="AM246">
         <v>2277900</v>
       </c>
     </row>
-    <row r="247" spans="1:36">
+    <row r="247" spans="1:39">
       <c r="A247" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -27659,15 +29882,24 @@
         <v>0.610478932262621</v>
       </c>
       <c r="AI247">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ247">
+        <v>1</v>
+      </c>
+      <c r="AK247">
+        <v>0</v>
+      </c>
+      <c r="AL247">
+        <v>1</v>
+      </c>
+      <c r="AM247">
         <v>68884</v>
       </c>
     </row>
-    <row r="248" spans="1:36">
+    <row r="248" spans="1:39">
       <c r="A248" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -27766,15 +29998,24 @@
         <v>0.610478932262621</v>
       </c>
       <c r="AI248">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ248">
+        <v>1</v>
+      </c>
+      <c r="AK248">
+        <v>1</v>
+      </c>
+      <c r="AL248">
+        <v>1</v>
+      </c>
+      <c r="AM248">
         <v>1087658</v>
       </c>
     </row>
-    <row r="249" spans="1:36">
+    <row r="249" spans="1:39">
       <c r="A249" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -27873,15 +30114,24 @@
         <v>0.610478932262621</v>
       </c>
       <c r="AI249">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ249">
+        <v>1</v>
+      </c>
+      <c r="AK249">
+        <v>1</v>
+      </c>
+      <c r="AL249">
+        <v>1</v>
+      </c>
+      <c r="AM249">
         <v>124806</v>
       </c>
     </row>
-    <row r="250" spans="1:36">
+    <row r="250" spans="1:39">
       <c r="A250" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -27980,15 +30230,24 @@
         <v>0.610478932262621</v>
       </c>
       <c r="AI250">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ250">
+        <v>1</v>
+      </c>
+      <c r="AK250">
+        <v>0</v>
+      </c>
+      <c r="AL250">
+        <v>1</v>
+      </c>
+      <c r="AM250">
         <v>8904926</v>
       </c>
     </row>
-    <row r="251" spans="1:36">
+    <row r="251" spans="1:39">
       <c r="A251" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -28087,21 +30346,30 @@
         <v>0.610478932262621</v>
       </c>
       <c r="AI251">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ251">
+        <v>1</v>
+      </c>
+      <c r="AK251">
+        <v>0</v>
+      </c>
+      <c r="AL251">
+        <v>1</v>
+      </c>
+      <c r="AM251">
         <v>2456834</v>
       </c>
     </row>
-    <row r="252" spans="1:36">
+    <row r="252" spans="1:39">
       <c r="A252" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B252">
         <v>0</v>
       </c>
       <c r="C252" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -28194,15 +30462,24 @@
         <v>0.610478932262621</v>
       </c>
       <c r="AI252">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ252">
+        <v>1</v>
+      </c>
+      <c r="AK252">
+        <v>0</v>
+      </c>
+      <c r="AL252">
+        <v>1</v>
+      </c>
+      <c r="AM252">
         <v>197596</v>
       </c>
     </row>
-    <row r="253" spans="1:36">
+    <row r="253" spans="1:39">
       <c r="A253" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -28301,15 +30578,24 @@
         <v>0.610478932262621</v>
       </c>
       <c r="AI253">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ253">
+        <v>1</v>
+      </c>
+      <c r="AK253">
+        <v>0</v>
+      </c>
+      <c r="AL253">
+        <v>1</v>
+      </c>
+      <c r="AM253">
         <v>300000</v>
       </c>
     </row>
-    <row r="254" spans="1:36">
+    <row r="254" spans="1:39">
       <c r="A254" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -28408,9 +30694,18 @@
         <v>0.610478932262621</v>
       </c>
       <c r="AI254">
-        <v>1</v>
+        <v>1956</v>
       </c>
       <c r="AJ254">
+        <v>1</v>
+      </c>
+      <c r="AK254">
+        <v>0</v>
+      </c>
+      <c r="AL254">
+        <v>1</v>
+      </c>
+      <c r="AM254">
         <v>501425</v>
       </c>
     </row>

--- a/output/oxfam intermon.xlsx
+++ b/output/oxfam intermon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
+    <t>Budget_Previous_Year</t>
   </si>
   <si>
-    <t>Vision_ONGD_LatinAmerica</t>
+    <t>LatinAmerica</t>
   </si>
   <si>
-    <t>Vision_ONGD_Africa</t>
+    <t>Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confessional</t>
+    <t>Confessional</t>
   </si>
   <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
+    <t>Donor_Aid_Budget</t>
   </si>
   <si>
-    <t>Total_Fondos</t>
+    <t>Total_Funds</t>
   </si>
   <si>
-    <t>Proporcion_Fondos_Privados</t>
+    <t>%_Private_Funds</t>
   </si>
   <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -838,9 +838,6 @@
     <t>2016_cuba</t>
   </si>
   <si>
-    <t>..</t>
-  </si>
-  <si>
     <t>2016_ecuador</t>
   </si>
   <si>
@@ -1381,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2880</v>
+        <v>2771.04675450926</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1503,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6490</v>
+        <v>7854.952374701078</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1625,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5520</v>
+        <v>5596.139681459835</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1747,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D5">
         <v>262062</v>
@@ -1869,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>680</v>
+        <v>697.6889104500298</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1971,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -1991,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1620</v>
+        <v>1873.394108966653</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2113,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8820</v>
+        <v>8947.741473873051</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2235,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2357,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4940</v>
+        <v>5191.140356354663</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2459,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -2479,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D11">
         <v>175000</v>
@@ -2601,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8320</v>
+        <v>10594.98659239237</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2723,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9950</v>
+        <v>12227.21453003286</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2845,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5130</v>
+        <v>6128.19547247793</v>
       </c>
       <c r="D14">
         <v>234279</v>
@@ -2967,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4060</v>
+        <v>4547.50930098406</v>
       </c>
       <c r="D15">
         <v>101000</v>
@@ -3089,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3450</v>
+        <v>3972.630273980753</v>
       </c>
       <c r="D16">
         <v>230000</v>
@@ -3211,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3333,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>730</v>
+        <v>748.2960604568028</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3455,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2260</v>
+        <v>2100.656463590606</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3577,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1120</v>
+        <v>1268.249210347625</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3699,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2150</v>
+        <v>2979.004713899616</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3943,7 +3940,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>640</v>
+        <v>899.2426442439591</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4065,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>480</v>
+        <v>567.9059336271471</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4187,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1010</v>
+        <v>993.3829437244538</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4309,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>2010</v>
+        <v>2609.688011589589</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4431,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>4140</v>
+        <v>4744.762791189912</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4553,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1010</v>
+        <v>1250.795760575873</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4797,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>3240</v>
+        <v>3587.883798243964</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4919,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>8080</v>
+        <v>8000.376431821543</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5041,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>480</v>
+        <v>471.181692645893</v>
       </c>
       <c r="D32">
         <v>3000000</v>
@@ -5163,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>6190</v>
+        <v>7328.615628939658</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5285,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>720</v>
+        <v>743.403784726004</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5407,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>910</v>
+        <v>892.5687203369533</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5529,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>2930</v>
+        <v>2839.92516805933</v>
       </c>
       <c r="D36">
         <v>1600000</v>
@@ -5651,7 +5648,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>570</v>
+        <v>647.8358464534491</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5773,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>1190</v>
+        <v>1213.112645064426</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5895,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>1230</v>
+        <v>1299.344949460393</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -6017,7 +6014,7 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>1170</v>
+        <v>1610.923908476106</v>
       </c>
       <c r="D40">
         <v>2800000</v>
@@ -6139,7 +6136,7 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>220</v>
+        <v>234.2356468749991</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -6261,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>380</v>
+        <v>341.5541149051794</v>
       </c>
       <c r="D42">
         <v>2800000</v>
@@ -6383,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>960</v>
+        <v>951.6879611168786</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6505,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>1260</v>
+        <v>1401.47747416771</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6627,7 +6624,7 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>560</v>
+        <v>815.8736791314819</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6749,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>7180</v>
+        <v>8141.91312675461</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6871,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>5610</v>
+        <v>5730.354774594881</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6993,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D48">
         <v>262062</v>
@@ -7115,7 +7112,7 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>650</v>
+        <v>665.6274194933962</v>
       </c>
       <c r="D49">
         <v>156000</v>
@@ -7217,7 +7214,7 @@
         <v>1</v>
       </c>
       <c r="AL49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM49">
         <v>1</v>
@@ -7237,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>1730</v>
+        <v>1904.346464968814</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -7359,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>9040</v>
+        <v>9271.398233246389</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -7481,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7603,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>5340</v>
+        <v>5555.389721901988</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7705,7 +7702,7 @@
         <v>1</v>
       </c>
       <c r="AL53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM53">
         <v>1</v>
@@ -7725,7 +7722,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D54">
         <v>175000</v>
@@ -7847,7 +7844,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>9660</v>
+        <v>11286.24301624575</v>
       </c>
       <c r="D55">
         <v>1500000</v>
@@ -7969,7 +7966,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>10750</v>
+        <v>12808.034586422</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -8091,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>5610</v>
+        <v>6336.709213679884</v>
       </c>
       <c r="D57">
         <v>4000000</v>
@@ -8213,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>4390</v>
+        <v>4633.590358399045</v>
       </c>
       <c r="D58">
         <v>1500000</v>
@@ -8335,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>4070</v>
+        <v>4355.934938677345</v>
       </c>
       <c r="D59">
         <v>230000</v>
@@ -8457,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D60">
         <v>1500000</v>
@@ -8579,7 +8576,7 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>800</v>
+        <v>781.1535935570469</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8701,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>4340</v>
+        <v>4550.453595838572</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8823,7 +8820,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>2460</v>
+        <v>2217.474008566157</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8945,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>1220</v>
+        <v>1357.563719132622</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -9067,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>2530</v>
+        <v>3122.362815216495</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -9311,7 +9308,7 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>850</v>
+        <v>979.0516300049418</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -9433,7 +9430,7 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <v>540</v>
+        <v>592.4010974509293</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -9555,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>1030</v>
+        <v>987.4097230439231</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -9677,7 +9674,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>2410</v>
+        <v>2799.648876199722</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -9799,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>4580</v>
+        <v>5076.340174387075</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -9921,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>1250</v>
+        <v>1317.890706178356</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -10165,7 +10162,7 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>8400</v>
+        <v>8313.271253931192</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -10287,7 +10284,7 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>500</v>
+        <v>492.3430015592067</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -10409,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>6990</v>
+        <v>7454.720164783006</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -10531,7 +10528,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>770</v>
+        <v>777.227218443918</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -10653,7 +10650,7 @@
         <v>1</v>
       </c>
       <c r="C78">
-        <v>880</v>
+        <v>863.7612548677739</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -10775,7 +10772,7 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>3000</v>
+        <v>2948.84548976845</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -10897,7 +10894,7 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>600</v>
+        <v>670.2645481663891</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -11019,7 +11016,7 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>1120</v>
+        <v>1132.548400540401</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -11141,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>1380</v>
+        <v>1446.371630707023</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -11263,7 +11260,7 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>1240</v>
+        <v>1629.435089125503</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -11385,7 +11382,7 @@
         <v>1</v>
       </c>
       <c r="C84">
-        <v>230</v>
+        <v>235.9887666597866</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -11507,7 +11504,7 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>390</v>
+        <v>369.2024078290272</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -11629,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>990</v>
+        <v>982.980837581714</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -11751,7 +11748,7 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>1480</v>
+        <v>1591.56825353313</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -11873,7 +11870,7 @@
         <v>1</v>
       </c>
       <c r="C88">
-        <v>630</v>
+        <v>864.5379000312432</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -11995,7 +11992,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>8000</v>
+        <v>8390.479071096475</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -12117,7 +12114,7 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>5930</v>
+        <v>5885.254624554112</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -12239,7 +12236,7 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -12361,7 +12358,7 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>710</v>
+        <v>691.8942672110555</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -12463,7 +12460,7 @@
         <v>1</v>
       </c>
       <c r="AL92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM92">
         <v>1</v>
@@ -12483,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>1860</v>
+        <v>1939.33862702996</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -12605,7 +12602,7 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>9310</v>
+        <v>9477.887185090232</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -12727,7 +12724,7 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -12849,7 +12846,7 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>5540</v>
+        <v>5660.517066940175</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -12951,7 +12948,7 @@
         <v>1</v>
       </c>
       <c r="AL96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM96">
         <v>1</v>
@@ -12971,7 +12968,7 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -13093,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>11080</v>
+        <v>11627.81065059172</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -13215,7 +13212,7 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>12340</v>
+        <v>13455.83781255333</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -13337,7 +13334,7 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <v>6320</v>
+        <v>6711.616186806423</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -13459,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <v>4870</v>
+        <v>4921.848409120176</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -13581,7 +13578,7 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <v>4480</v>
+        <v>4479.398934239905</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -13703,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="C103">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -13825,7 +13822,7 @@
         <v>1</v>
       </c>
       <c r="C104">
-        <v>890</v>
+        <v>822.1883388417289</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -13947,7 +13944,7 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>5050</v>
+        <v>4961.234688573883</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -14069,7 +14066,7 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>2610</v>
+        <v>2264.394087033834</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -14191,7 +14188,7 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>1360</v>
+        <v>1410.426304742003</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -14313,7 +14310,7 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>3010</v>
+        <v>3270.619489853285</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -14557,7 +14554,7 @@
         <v>1</v>
       </c>
       <c r="C110">
-        <v>610</v>
+        <v>612.032557723897</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -14679,7 +14676,7 @@
         <v>0</v>
       </c>
       <c r="C111">
-        <v>2850</v>
+        <v>3014.578744505088</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -14801,7 +14798,7 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>4950</v>
+        <v>5094.472660592368</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -14923,7 +14920,7 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>1370</v>
+        <v>1385.890384668919</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -15167,7 +15164,7 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>2250</v>
+        <v>2094.024217383061</v>
       </c>
       <c r="D115">
         <v>553225</v>
@@ -15289,7 +15286,7 @@
         <v>0</v>
       </c>
       <c r="C116">
-        <v>6280</v>
+        <v>6051.685746144485</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -15411,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>1360</v>
+        <v>1652.714170143609</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -15533,7 +15530,7 @@
         <v>1</v>
       </c>
       <c r="C118">
-        <v>960</v>
+        <v>909.3123437708064</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -15655,7 +15652,7 @@
         <v>0</v>
       </c>
       <c r="C119">
-        <v>12360</v>
+        <v>11745.7759262897</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -15777,7 +15774,7 @@
         <v>0</v>
       </c>
       <c r="C120">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -15899,7 +15896,7 @@
         <v>0</v>
       </c>
       <c r="C121">
-        <v>5390</v>
+        <v>5122.180090208862</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -16021,7 +16018,7 @@
         <v>1</v>
       </c>
       <c r="C122">
-        <v>410</v>
+        <v>389.9389667216314</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -16143,7 +16140,7 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>550</v>
+        <v>513.7390871590731</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -16265,7 +16262,7 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <v>250</v>
+        <v>238.8160458251716</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -16387,7 +16384,7 @@
         <v>0</v>
       </c>
       <c r="C125">
-        <v>7290</v>
+        <v>6911.59200404802</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -16509,7 +16506,7 @@
         <v>0</v>
       </c>
       <c r="C126">
-        <v>4760</v>
+        <v>4394.543881413723</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -16631,7 +16628,7 @@
         <v>1</v>
       </c>
       <c r="C127">
-        <v>760</v>
+        <v>701.4459636783288</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -16733,7 +16730,7 @@
         <v>1</v>
       </c>
       <c r="AL127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM127">
         <v>1</v>
@@ -16753,7 +16750,7 @@
         <v>0</v>
       </c>
       <c r="C128">
-        <v>5790</v>
+        <v>5745.422744292303</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -16855,7 +16852,7 @@
         <v>1</v>
       </c>
       <c r="AL128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM128">
         <v>1</v>
@@ -16875,7 +16872,7 @@
         <v>0</v>
       </c>
       <c r="C129">
-        <v>3100</v>
+        <v>2999.422762626143</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -16997,7 +16994,7 @@
         <v>0</v>
       </c>
       <c r="C130">
-        <v>1690</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -17119,7 +17116,7 @@
         <v>1</v>
       </c>
       <c r="C131">
-        <v>1710</v>
+        <v>1745.10167474004</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -17241,7 +17238,7 @@
         <v>0</v>
       </c>
       <c r="C132">
-        <v>2980</v>
+        <v>2995.45235738661</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -17363,7 +17360,7 @@
         <v>0</v>
       </c>
       <c r="C133">
-        <v>810</v>
+        <v>788.439151581443</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -17485,7 +17482,7 @@
         <v>0</v>
       </c>
       <c r="C134">
-        <v>2970</v>
+        <v>2379.668184479739</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -17607,7 +17604,7 @@
         <v>0</v>
       </c>
       <c r="C135">
-        <v>1480</v>
+        <v>1469.177610078392</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -17729,7 +17726,7 @@
         <v>1</v>
       </c>
       <c r="C136">
-        <v>640</v>
+        <v>869.6014949562591</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -17851,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="C137">
-        <v>9150</v>
+        <v>8689.96516770511</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -17973,7 +17970,7 @@
         <v>0</v>
       </c>
       <c r="C138">
-        <v>5520</v>
+        <v>5437.877690816224</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -18095,7 +18092,7 @@
         <v>0</v>
       </c>
       <c r="C139">
-        <v>1230</v>
+        <v>1223.631935023299</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -18217,7 +18214,7 @@
         <v>0</v>
       </c>
       <c r="C140">
-        <v>3360</v>
+        <v>3286.007594293901</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -18339,7 +18336,7 @@
         <v>0</v>
       </c>
       <c r="C141">
-        <v>1540</v>
+        <v>1443.492614888721</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -18461,7 +18458,7 @@
         <v>1</v>
       </c>
       <c r="C142">
-        <v>970</v>
+        <v>865.7498910537106</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -18583,7 +18580,7 @@
         <v>0</v>
       </c>
       <c r="C143">
-        <v>7570</v>
+        <v>7500.041066630049</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -18705,7 +18702,7 @@
         <v>1</v>
       </c>
       <c r="C144">
-        <v>700</v>
+        <v>642.5204633514562</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -18827,7 +18824,7 @@
         <v>0</v>
       </c>
       <c r="C145">
-        <v>1540</v>
+        <v>1543.763984230257</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -18949,7 +18946,7 @@
         <v>0</v>
       </c>
       <c r="C146">
-        <v>9550</v>
+        <v>8580.085649248311</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -19071,7 +19068,7 @@
         <v>0</v>
       </c>
       <c r="C147">
-        <v>3580</v>
+        <v>3421.273520448287</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -19315,7 +19312,7 @@
         <v>0</v>
       </c>
       <c r="C149">
-        <v>10050</v>
+        <v>9690.869064532331</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -19437,7 +19434,7 @@
         <v>0</v>
       </c>
       <c r="C150">
-        <v>1050</v>
+        <v>1000.829216794104</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -19559,7 +19556,7 @@
         <v>0</v>
       </c>
       <c r="C151">
-        <v>2590</v>
+        <v>2201.396847776877</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -19681,7 +19678,7 @@
         <v>0</v>
       </c>
       <c r="C152">
-        <v>6640</v>
+        <v>6203.843262938323</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -19803,7 +19800,7 @@
         <v>1</v>
       </c>
       <c r="C153">
-        <v>1450</v>
+        <v>1671.292192516047</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -19925,7 +19922,7 @@
         <v>1</v>
       </c>
       <c r="C154">
-        <v>970</v>
+        <v>929.4690557368662</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -20047,7 +20044,7 @@
         <v>0</v>
       </c>
       <c r="C155">
-        <v>12810</v>
+        <v>11993.48398487312</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -20169,7 +20166,7 @@
         <v>0</v>
       </c>
       <c r="C156">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -20291,7 +20288,7 @@
         <v>0</v>
       </c>
       <c r="C157">
-        <v>5810</v>
+        <v>5295.682695961288</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -20413,7 +20410,7 @@
         <v>1</v>
       </c>
       <c r="C158">
-        <v>470</v>
+        <v>419.1838602515346</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -20535,7 +20532,7 @@
         <v>1</v>
       </c>
       <c r="C159">
-        <v>620</v>
+        <v>534.5063430177229</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -20657,7 +20654,7 @@
         <v>1</v>
       </c>
       <c r="C160">
-        <v>260</v>
+        <v>242.8459946574492</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -20779,7 +20776,7 @@
         <v>0</v>
       </c>
       <c r="C161">
-        <v>7910</v>
+        <v>7200.731056811853</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -20901,7 +20898,7 @@
         <v>0</v>
       </c>
       <c r="C162">
-        <v>5510</v>
+        <v>4699.493713911862</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -21023,7 +21020,7 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <v>800</v>
+        <v>720.7128711178943</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -21125,7 +21122,7 @@
         <v>1</v>
       </c>
       <c r="AL163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM163">
         <v>1</v>
@@ -21145,7 +21142,7 @@
         <v>0</v>
       </c>
       <c r="C164">
-        <v>6020</v>
+        <v>5955.175904294275</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -21247,7 +21244,7 @@
         <v>1</v>
       </c>
       <c r="AL164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM164">
         <v>1</v>
@@ -21267,7 +21264,7 @@
         <v>0</v>
       </c>
       <c r="C165">
-        <v>3320</v>
+        <v>3056.152683606517</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -21389,7 +21386,7 @@
         <v>0</v>
       </c>
       <c r="C166">
-        <v>1780</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -21511,7 +21508,7 @@
         <v>1</v>
       </c>
       <c r="C167">
-        <v>1210</v>
+        <v>1778.60982580794</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -21633,7 +21630,7 @@
         <v>0</v>
       </c>
       <c r="C168">
-        <v>3090</v>
+        <v>3087.12349650562</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -21755,7 +21752,7 @@
         <v>0</v>
       </c>
       <c r="C169">
-        <v>890</v>
+        <v>817.1226340535979</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -21877,7 +21874,7 @@
         <v>0</v>
       </c>
       <c r="C170">
-        <v>3290</v>
+        <v>2497.68592515536</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -21999,7 +21996,7 @@
         <v>0</v>
       </c>
       <c r="C171">
-        <v>1520</v>
+        <v>1544.619247249133</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -22121,7 +22118,7 @@
         <v>1</v>
       </c>
       <c r="C172">
-        <v>650</v>
+        <v>872.1235974568563</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -22243,7 +22240,7 @@
         <v>0</v>
       </c>
       <c r="C173">
-        <v>9740</v>
+        <v>8785.741384666739</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -22365,7 +22362,7 @@
         <v>0</v>
       </c>
       <c r="C174">
-        <v>5720</v>
+        <v>5558.73713990153</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -22487,7 +22484,7 @@
         <v>0</v>
       </c>
       <c r="C175">
-        <v>1320</v>
+        <v>1299.811672673934</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -22609,7 +22606,7 @@
         <v>0</v>
       </c>
       <c r="C176">
-        <v>3490</v>
+        <v>3371.18333653065</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -22731,7 +22728,7 @@
         <v>0</v>
       </c>
       <c r="C177">
-        <v>1720</v>
+        <v>1505.810948829135</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -22853,7 +22850,7 @@
         <v>1</v>
       </c>
       <c r="C178">
-        <v>1040</v>
+        <v>907.2574180443885</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -22975,7 +22972,7 @@
         <v>0</v>
       </c>
       <c r="C179">
-        <v>7340</v>
+        <v>7563.992777076393</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -23097,7 +23094,7 @@
         <v>1</v>
       </c>
       <c r="C180">
-        <v>750</v>
+        <v>670.8378265228503</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -23219,7 +23216,7 @@
         <v>0</v>
       </c>
       <c r="C181">
-        <v>1870</v>
+        <v>1618.597849849475</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -23341,7 +23338,7 @@
         <v>0</v>
       </c>
       <c r="C182">
-        <v>10520</v>
+        <v>8848.887032008171</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -23463,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="C183">
-        <v>3730</v>
+        <v>3563.299863942833</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -23707,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="C185">
-        <v>10270</v>
+        <v>9693.722968944676</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -23829,7 +23826,7 @@
         <v>0</v>
       </c>
       <c r="C186">
-        <v>1130</v>
+        <v>1032.277326842402</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -23951,7 +23948,7 @@
         <v>0</v>
       </c>
       <c r="C187">
-        <v>2830</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -24073,7 +24070,7 @@
         <v>0</v>
       </c>
       <c r="C188">
-        <v>12100</v>
+        <v>11951.20944634967</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -24195,7 +24192,7 @@
         <v>1</v>
       </c>
       <c r="C189">
-        <v>690</v>
+        <v>720.1523351943922</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -24317,7 +24314,7 @@
         <v>1</v>
       </c>
       <c r="C190">
-        <v>260</v>
+        <v>245.326738733565</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -24439,7 +24436,7 @@
         <v>1</v>
       </c>
       <c r="C191">
-        <v>980</v>
+        <v>961.3778847738438</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -24561,7 +24558,7 @@
         <v>0</v>
       </c>
       <c r="C192">
-        <v>8190</v>
+        <v>7449.08671983612</v>
       </c>
       <c r="D192">
         <v>2500000</v>
@@ -24683,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="C193">
-        <v>6840</v>
+        <v>6255.426161047989</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -24805,7 +24802,7 @@
         <v>0</v>
       </c>
       <c r="C194">
-        <v>6110</v>
+        <v>5412.131646018807</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -24927,7 +24924,7 @@
         <v>0</v>
       </c>
       <c r="C195">
-        <v>3400</v>
+        <v>3252.634165082374</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -25049,7 +25046,7 @@
         <v>1</v>
       </c>
       <c r="C196">
-        <v>550</v>
+        <v>449.4203771491282</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -25171,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="C197">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -25293,7 +25290,7 @@
         <v>1</v>
       </c>
       <c r="C198">
-        <v>830</v>
+        <v>730.3063521039821</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -25395,7 +25392,7 @@
         <v>1</v>
       </c>
       <c r="AL198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM198">
         <v>1</v>
@@ -25415,7 +25412,7 @@
         <v>0</v>
       </c>
       <c r="C199">
-        <v>3060</v>
+        <v>3125.07948072635</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -25537,7 +25534,7 @@
         <v>1</v>
       </c>
       <c r="C200">
-        <v>1390</v>
+        <v>1692.460946584157</v>
       </c>
       <c r="D200">
         <v>2500000</v>
@@ -25659,7 +25656,7 @@
         <v>1</v>
       </c>
       <c r="C201">
-        <v>650</v>
+        <v>558.2093442539386</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -25781,7 +25778,7 @@
         <v>0</v>
       </c>
       <c r="C202">
-        <v>1850</v>
+        <v>1775.027517189621</v>
       </c>
       <c r="D202">
         <v>2500000</v>
@@ -25903,7 +25900,7 @@
         <v>0</v>
       </c>
       <c r="C203">
-        <v>5780</v>
+        <v>4861.287098802361</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -26025,7 +26022,7 @@
         <v>0</v>
       </c>
       <c r="C204">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -26147,7 +26144,7 @@
         <v>1</v>
       </c>
       <c r="C205">
-        <v>390</v>
+        <v>334.4404985977295</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -26269,7 +26266,7 @@
         <v>0</v>
       </c>
       <c r="C206">
-        <v>6310</v>
+        <v>6301.696269820412</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -26371,7 +26368,7 @@
         <v>1</v>
       </c>
       <c r="AL206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM206">
         <v>1</v>
@@ -26391,7 +26388,7 @@
         <v>0</v>
       </c>
       <c r="C207">
-        <v>1100</v>
+        <v>831.8504623916352</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -26513,7 +26510,7 @@
         <v>0</v>
       </c>
       <c r="C208">
-        <v>2960</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -26635,7 +26632,7 @@
         <v>0</v>
       </c>
       <c r="C209">
-        <v>10160</v>
+        <v>11431.15448084494</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -26757,7 +26754,7 @@
         <v>0</v>
       </c>
       <c r="C210">
-        <v>630</v>
+        <v>726.6520119370772</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -26879,7 +26876,7 @@
         <v>0</v>
       </c>
       <c r="C211">
-        <v>260</v>
+        <v>228.4325441716057</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -27001,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="C212">
-        <v>880</v>
+        <v>956.659691840205</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -27123,7 +27120,7 @@
         <v>0</v>
       </c>
       <c r="C213">
-        <v>7330</v>
+        <v>7580.275568826287</v>
       </c>
       <c r="D213">
         <v>2500000</v>
@@ -27245,7 +27242,7 @@
         <v>0</v>
       </c>
       <c r="C214">
-        <v>7230</v>
+        <v>6522.736799041846</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -27367,7 +27364,7 @@
         <v>0</v>
       </c>
       <c r="C215">
-        <v>5970</v>
+        <v>5330.539154475424</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -27489,7 +27486,7 @@
         <v>0</v>
       </c>
       <c r="C216">
-        <v>3440</v>
+        <v>3314.741082534716</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -27611,7 +27608,7 @@
         <v>0</v>
       </c>
       <c r="C217">
-        <v>600</v>
+        <v>482.6390663355013</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -27733,7 +27730,7 @@
         <v>0</v>
       </c>
       <c r="C218">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -27855,7 +27852,7 @@
         <v>0</v>
       </c>
       <c r="C219">
-        <v>810</v>
+        <v>729.1196658666737</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -27957,7 +27954,7 @@
         <v>1</v>
       </c>
       <c r="AL219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM219">
         <v>1</v>
@@ -27977,7 +27974,7 @@
         <v>0</v>
       </c>
       <c r="C220">
-        <v>3020</v>
+        <v>3222.05417836739</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -28099,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="C221">
-        <v>1270</v>
+        <v>1732.587316450496</v>
       </c>
       <c r="D221">
         <v>2500000</v>
@@ -28221,7 +28218,7 @@
         <v>0</v>
       </c>
       <c r="C222">
-        <v>600</v>
+        <v>579.0880693780265</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -28343,7 +28340,7 @@
         <v>0</v>
       </c>
       <c r="C223">
-        <v>1910</v>
+        <v>1836.014008604312</v>
       </c>
       <c r="D223">
         <v>280000</v>
@@ -28465,7 +28462,7 @@
         <v>0</v>
       </c>
       <c r="C224">
-        <v>5620</v>
+        <v>4944.191641077407</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -28587,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="C225">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -28709,7 +28706,7 @@
         <v>0</v>
       </c>
       <c r="C226">
-        <v>400</v>
+        <v>346.6937973410475</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -28831,7 +28828,7 @@
         <v>0</v>
       </c>
       <c r="C227">
-        <v>6480</v>
+        <v>6661.86504232374</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -28933,7 +28930,7 @@
         <v>1</v>
       </c>
       <c r="AL227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM227">
         <v>1</v>
@@ -28953,7 +28950,7 @@
         <v>0</v>
       </c>
       <c r="C228">
-        <v>1020</v>
+        <v>730.9320426740553</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -29075,7 +29072,7 @@
         <v>0</v>
       </c>
       <c r="C229">
-        <v>3040</v>
+        <v>2425.561644739583</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -29197,7 +29194,7 @@
         <v>1</v>
       </c>
       <c r="C230">
-        <v>600</v>
+        <v>747.8284752776283</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -29319,7 +29316,7 @@
         <v>1</v>
       </c>
       <c r="C231">
-        <v>270</v>
+        <v>219.9614977577509</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -29441,7 +29438,7 @@
         <v>1</v>
       </c>
       <c r="C232">
-        <v>730</v>
+        <v>869.0586852798759</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -29563,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="C233">
-        <v>6460</v>
+        <v>7633.969039669125</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -29684,8 +29681,8 @@
       <c r="B234">
         <v>0</v>
       </c>
-      <c r="C234" t="s">
-        <v>274</v>
+      <c r="C234">
+        <v>6550.274372976741</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -29801,13 +29798,13 @@
     </row>
     <row r="235" spans="1:41">
       <c r="A235" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B235">
         <v>0</v>
       </c>
       <c r="C235">
-        <v>5810</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -29923,13 +29920,13 @@
     </row>
     <row r="236" spans="1:41">
       <c r="A236" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B236">
         <v>1</v>
       </c>
       <c r="C236">
-        <v>660</v>
+        <v>514.0573067519859</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -30045,13 +30042,13 @@
     </row>
     <row r="237" spans="1:41">
       <c r="A237" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B237">
         <v>0</v>
       </c>
       <c r="C237">
-        <v>3800</v>
+        <v>3242.636921959078</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -30167,13 +30164,13 @@
     </row>
     <row r="238" spans="1:41">
       <c r="A238" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B238">
         <v>1</v>
       </c>
       <c r="C238">
-        <v>780</v>
+        <v>729.8559996981501</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -30275,7 +30272,7 @@
         <v>1</v>
       </c>
       <c r="AL238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM238">
         <v>1</v>
@@ -30289,13 +30286,13 @@
     </row>
     <row r="239" spans="1:41">
       <c r="A239" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B239">
         <v>0</v>
       </c>
       <c r="C239">
-        <v>2110</v>
+        <v>2111.193164269742</v>
       </c>
       <c r="D239">
         <v>300000</v>
@@ -30411,13 +30408,13 @@
     </row>
     <row r="240" spans="1:41">
       <c r="A240" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B240">
         <v>0</v>
       </c>
       <c r="C240">
-        <v>7250</v>
+        <v>6411.986543373589</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -30533,13 +30530,13 @@
     </row>
     <row r="241" spans="1:41">
       <c r="A241" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B241">
         <v>1</v>
       </c>
       <c r="C241">
-        <v>780</v>
+        <v>749.2194349876407</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -30655,13 +30652,13 @@
     </row>
     <row r="242" spans="1:41">
       <c r="A242" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B242">
         <v>0</v>
       </c>
       <c r="C242">
-        <v>2890</v>
+        <v>3212.81539531051</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -30777,13 +30774,13 @@
     </row>
     <row r="243" spans="1:41">
       <c r="A243" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B243">
         <v>1</v>
       </c>
       <c r="C243">
-        <v>1160</v>
+        <v>1705.033923663474</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -30899,13 +30896,13 @@
     </row>
     <row r="244" spans="1:41">
       <c r="A244" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B244">
         <v>1</v>
       </c>
       <c r="C244">
-        <v>490</v>
+        <v>584.2111078769213</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -31021,13 +31018,13 @@
     </row>
     <row r="245" spans="1:41">
       <c r="A245" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B245">
         <v>1</v>
       </c>
       <c r="C245">
-        <v>770</v>
+        <v>729.6614300490079</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -31143,13 +31140,13 @@
     </row>
     <row r="246" spans="1:41">
       <c r="A246" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B246">
         <v>0</v>
       </c>
       <c r="C246">
-        <v>2000</v>
+        <v>1895.214690888655</v>
       </c>
       <c r="D246">
         <v>280000</v>
@@ -31265,13 +31262,13 @@
     </row>
     <row r="247" spans="1:41">
       <c r="A247" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B247">
         <v>1</v>
       </c>
       <c r="C247">
-        <v>370</v>
+        <v>526.5953412037009</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -31387,13 +31384,13 @@
     </row>
     <row r="248" spans="1:41">
       <c r="A248" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B248">
         <v>0</v>
       </c>
       <c r="C248">
-        <v>5390</v>
+        <v>5089.61202008711</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -31509,13 +31506,13 @@
     </row>
     <row r="249" spans="1:41">
       <c r="A249" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B249">
         <v>0</v>
       </c>
       <c r="C249">
-        <v>6120</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -31631,13 +31628,13 @@
     </row>
     <row r="250" spans="1:41">
       <c r="A250" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B250">
         <v>1</v>
       </c>
       <c r="C250">
-        <v>410</v>
+        <v>359.6000402964525</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -31753,13 +31750,13 @@
     </row>
     <row r="251" spans="1:41">
       <c r="A251" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B251">
         <v>0</v>
       </c>
       <c r="C251">
-        <v>6640</v>
+        <v>7026.178156858586</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -31861,7 +31858,7 @@
         <v>1</v>
       </c>
       <c r="AL251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM251">
         <v>1</v>
@@ -31875,13 +31872,13 @@
     </row>
     <row r="252" spans="1:41">
       <c r="A252" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B252">
         <v>0</v>
       </c>
-      <c r="C252" t="s">
-        <v>274</v>
+      <c r="C252">
+        <v>0</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -31997,13 +31994,13 @@
     </row>
     <row r="253" spans="1:41">
       <c r="A253" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B253">
         <v>0</v>
       </c>
       <c r="C253">
-        <v>18890</v>
+        <v>22666.28622740736</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -32119,13 +32116,13 @@
     </row>
     <row r="254" spans="1:41">
       <c r="A254" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B254">
         <v>0</v>
       </c>
       <c r="C254">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="D254">
         <v>0</v>

--- a/output/oxfam intermon.xlsx
+++ b/output/oxfam intermon.xlsx
@@ -2845,7 +2845,7 @@
         <v>6128.19547247793</v>
       </c>
       <c r="D14">
-        <v>234279</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>3543361</v>
@@ -3815,10 +3815,10 @@
         <v>61</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1068.16851075414</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2235.045836135583</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -6993,7 +6993,7 @@
         <v>2898.942214704482</v>
       </c>
       <c r="D48">
-        <v>262062</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>1211485</v>
@@ -7725,7 +7725,7 @@
         <v>1955.461557360978</v>
       </c>
       <c r="D54">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>1089328</v>
@@ -8335,7 +8335,7 @@
         <v>4355.934938677345</v>
       </c>
       <c r="D59">
-        <v>230000</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>1213012</v>
@@ -9183,10 +9183,10 @@
         <v>105</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1140.599204787031</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -10040,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>2354.125986718473</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -14429,10 +14429,10 @@
         <v>148</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1213.184693108941</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -15042,7 +15042,7 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>2580.369788543324</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -19190,7 +19190,7 @@
         <v>0</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>2675.677541978231</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -19562,7 +19562,7 @@
         <v>0</v>
       </c>
       <c r="E151">
-        <v>655559.825</v>
+        <v>1086296</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -19684,7 +19684,7 @@
         <v>0</v>
       </c>
       <c r="E152">
-        <v>313911.035</v>
+        <v>334327</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -19806,7 +19806,7 @@
         <v>0</v>
       </c>
       <c r="E153">
-        <v>2859676.68</v>
+        <v>1279277</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -19928,7 +19928,7 @@
         <v>0</v>
       </c>
       <c r="E154">
-        <v>2575281.2</v>
+        <v>5988953</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -20050,7 +20050,7 @@
         <v>0</v>
       </c>
       <c r="E155">
-        <v>78694.66</v>
+        <v>118262</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -20172,7 +20172,7 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>283615.55</v>
+        <v>958078</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -20294,7 +20294,7 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>320499.295</v>
+        <v>1087991</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -20416,7 +20416,7 @@
         <v>0</v>
       </c>
       <c r="E158">
-        <v>1236400.615</v>
+        <v>3250780</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -20538,7 +20538,7 @@
         <v>0</v>
       </c>
       <c r="E159">
-        <v>1269636.165</v>
+        <v>2679786</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -20660,7 +20660,7 @@
         <v>0</v>
       </c>
       <c r="E160">
-        <v>83537.405</v>
+        <v>630757</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -20782,7 +20782,7 @@
         <v>0</v>
       </c>
       <c r="E161">
-        <v>1030142.415</v>
+        <v>1328522</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -20904,7 +20904,7 @@
         <v>0</v>
       </c>
       <c r="E162">
-        <v>434692.195</v>
+        <v>454784</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -21026,7 +21026,7 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>522034.045</v>
+        <v>6895981</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -21148,7 +21148,7 @@
         <v>0</v>
       </c>
       <c r="E164">
-        <v>707129.865</v>
+        <v>694102</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -21270,7 +21270,7 @@
         <v>0</v>
       </c>
       <c r="E165">
-        <v>635198.225</v>
+        <v>970546</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -21392,7 +21392,7 @@
         <v>0</v>
       </c>
       <c r="E166">
-        <v>1049375.66</v>
+        <v>1584358</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -21514,7 +21514,7 @@
         <v>0</v>
       </c>
       <c r="E167">
-        <v>1015230.645</v>
+        <v>3254679</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -21636,7 +21636,7 @@
         <v>0</v>
       </c>
       <c r="E168">
-        <v>387601.03</v>
+        <v>763752</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -21758,7 +21758,7 @@
         <v>0</v>
       </c>
       <c r="E169">
-        <v>106080.94</v>
+        <v>325948</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -21880,7 +21880,7 @@
         <v>0</v>
       </c>
       <c r="E170">
-        <v>499512.16</v>
+        <v>0</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -22002,7 +22002,7 @@
         <v>0</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -22490,7 +22490,7 @@
         <v>0</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>368437</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -23582,13 +23582,13 @@
         <v>0</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>2670.127177203784</v>
       </c>
       <c r="D184">
         <v>0</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>24566</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -26516,7 +26516,7 @@
         <v>0</v>
       </c>
       <c r="E208">
-        <v>543147.845</v>
+        <v>655559.825</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -26638,7 +26638,7 @@
         <v>0</v>
       </c>
       <c r="E209">
-        <v>59131</v>
+        <v>78694.66</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -26751,7 +26751,7 @@
         <v>249</v>
       </c>
       <c r="B210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210">
         <v>726.6520119370772</v>
@@ -26760,7 +26760,7 @@
         <v>0</v>
       </c>
       <c r="E210">
-        <v>2308814.5</v>
+        <v>0</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -26873,7 +26873,7 @@
         <v>250</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211">
         <v>228.4325441716057</v>
@@ -26882,7 +26882,7 @@
         <v>0</v>
       </c>
       <c r="E211">
-        <v>908204.5</v>
+        <v>83537.405</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>251</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212">
         <v>956.659691840205</v>
@@ -27004,7 +27004,7 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <v>4283279</v>
+        <v>2575281.2</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -27123,10 +27123,10 @@
         <v>7580.275568826287</v>
       </c>
       <c r="D213">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="E213">
-        <v>664260.985</v>
+        <v>1030142.415</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -27248,7 +27248,7 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <v>167163.63</v>
+        <v>313911.035</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -27370,7 +27370,7 @@
         <v>0</v>
       </c>
       <c r="E215">
-        <v>543995.6800000001</v>
+        <v>320499.295</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -27492,7 +27492,7 @@
         <v>0</v>
       </c>
       <c r="E216">
-        <v>36775.955</v>
+        <v>0</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>256</v>
       </c>
       <c r="B217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217">
         <v>482.6390663355013</v>
@@ -27614,7 +27614,7 @@
         <v>0</v>
       </c>
       <c r="E217">
-        <v>1548333.5</v>
+        <v>1236400.615</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -27736,7 +27736,7 @@
         <v>0</v>
       </c>
       <c r="E218">
-        <v>485273.145</v>
+        <v>635198.225</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -27849,7 +27849,7 @@
         <v>258</v>
       </c>
       <c r="B219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219">
         <v>729.1196658666737</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="E219">
-        <v>3447990.71</v>
+        <v>522034.045</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="E220">
-        <v>534985</v>
+        <v>387601.03</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -28093,16 +28093,16 @@
         <v>260</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221">
         <v>1732.587316450496</v>
       </c>
       <c r="D221">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="E221">
-        <v>2273783.5</v>
+        <v>2859676.68</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -28215,7 +28215,7 @@
         <v>261</v>
       </c>
       <c r="B222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222">
         <v>579.0880693780265</v>
@@ -28224,7 +28224,7 @@
         <v>0</v>
       </c>
       <c r="E222">
-        <v>119423.91</v>
+        <v>1269636.165</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -28346,7 +28346,7 @@
         <v>280000</v>
       </c>
       <c r="E223">
-        <v>792179.165</v>
+        <v>1049375.66</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -28468,7 +28468,7 @@
         <v>0</v>
       </c>
       <c r="E224">
-        <v>227392.085</v>
+        <v>434692.195</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -28590,7 +28590,7 @@
         <v>0</v>
       </c>
       <c r="E225">
-        <v>479039.195</v>
+        <v>283615.55</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -28703,7 +28703,7 @@
         <v>265</v>
       </c>
       <c r="B226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C226">
         <v>346.6937973410475</v>
@@ -28712,7 +28712,7 @@
         <v>0</v>
       </c>
       <c r="E226">
-        <v>3134001.5</v>
+        <v>0</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -28834,7 +28834,7 @@
         <v>0</v>
       </c>
       <c r="E227">
-        <v>347051.04</v>
+        <v>707129.865</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         <v>0</v>
       </c>
       <c r="E228">
-        <v>1850188.5</v>
+        <v>0</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -31149,7 +31149,7 @@
         <v>1895.214690888655</v>
       </c>
       <c r="D246">
-        <v>280000</v>
+        <v>0</v>
       </c>
       <c r="E246">
         <v>792179.165</v>
@@ -31878,7 +31878,7 @@
         <v>0</v>
       </c>
       <c r="C252">
-        <v>0</v>
+        <v>941.02</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -32122,7 +32122,7 @@
         <v>0</v>
       </c>
       <c r="C254">
-        <v>0</v>
+        <v>171.03</v>
       </c>
       <c r="D254">
         <v>0</v>
